--- a/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
+++ b/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{AEAE6585-0D7C-4162-A89E-07796AB4C7DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{105A65A0-BF6A-4D1D-AD68-D4F58DE4D447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1308" yWindow="900" windowWidth="20796" windowHeight="11424" xr2:uid="{AF244846-4AAD-42AC-8F96-96B174BB4566}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" mergeInterval="0" personalView="1" xWindow="109" yWindow="75" windowWidth="1733" windowHeight="952" activeSheetId="1" showComments="commIndAndComment"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" mergeInterval="0" personalView="1" xWindow="109" yWindow="75" windowWidth="1733" windowHeight="952" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="62">
   <si>
     <t>Quantity of</t>
   </si>
@@ -296,6 +298,12 @@
   <si>
     <t>ft/m</t>
   </si>
+  <si>
+    <t>Unit Conversion the Easy Way (Dimensional Analysis)</t>
+  </si>
+  <si>
+    <t>Search YouTube for "Unit Analysis" here is a nice video:</t>
+  </si>
 </sst>
 </file>
 
@@ -304,7 +312,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +331,22 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -865,10 +889,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -972,100 +997,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1073,10 +1034,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1098,44 +1055,136 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1448,8 +1497,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A58227E2-4D60-41C5-91E7-BEC5E59B14DC}">
-  <header guid="{A58227E2-4D60-41C5-91E7-BEC5E59B14DC}" dateTime="2020-10-04T22:23:02" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{910A64A9-E54D-422E-A899-541B66D4BF36}">
+  <header guid="{910A64A9-E54D-422E-A899-541B66D4BF36}" dateTime="2020-11-11T21:12:24" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1463,7 +1512,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{910A64A9-E54D-422E-A899-541B66D4BF36}" name="Richard Ketchersid" id="-1739534102" dateTime="2020-11-11T21:12:24"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1763,25 +1814,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE0E753-5E77-4073-B8CA-0383615E5C44}">
-  <dimension ref="A11:K42"/>
+  <dimension ref="A11:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:G33"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1821,10 +1866,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="42"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1937,7 +1982,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1964,7 +2009,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1987,7 +2032,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -2010,7 +2055,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -2033,7 +2078,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -2056,7 +2101,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -2079,7 +2124,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2092,334 +2137,365 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="60" t="s">
+    <row r="24" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="65"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="65"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="68"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="66"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="68"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="63"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="65"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="66"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="68"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="66"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="68"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="71"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="43" t="s">
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="66"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="13"/>
+      <c r="B32" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43" t="s">
+      <c r="C32" s="49"/>
+      <c r="D32" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="43" t="s">
+      <c r="E32" s="49"/>
+      <c r="F32" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="51" t="s">
+      <c r="G32" s="50"/>
+      <c r="H32" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="52"/>
-    </row>
-    <row r="31" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="I32" s="36"/>
+    </row>
+    <row r="33" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B33" s="15">
         <v>10</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D33" s="15">
         <v>2.5</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E33" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F33" s="15">
         <v>5</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G33" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H33" s="27">
         <v>13</v>
       </c>
-      <c r="I31" s="47" t="s">
+      <c r="I33" s="28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="53"/>
-    </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="15">
-        <v>29.573499999999999</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="49"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="28"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="30"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="30"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="53"/>
+      <c r="I34" s="33"/>
     </row>
     <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" s="15">
-        <v>0.45359290943563974</v>
+        <v>29.573499999999999</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="18"/>
       <c r="F35" s="17"/>
       <c r="G35" s="18"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="49"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
+      <c r="B36" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="47"/>
       <c r="F36" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="30"/>
+      <c r="G36" s="47"/>
       <c r="H36" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="53"/>
+      <c r="I36" s="33"/>
     </row>
     <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
+        <v>38</v>
+      </c>
+      <c r="B37" s="15">
+        <v>0.45359290943563974</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="17"/>
       <c r="G37" s="18"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="49"/>
+      <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38" s="53"/>
-    </row>
-    <row r="39" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="20" t="s">
+      <c r="A38" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="47"/>
+      <c r="H38" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="47"/>
+      <c r="F40" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="47"/>
+      <c r="H40" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B41" s="21">
         <v>134.14329907194892</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C41" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="50"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E41" s="54" t="s">
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="31"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E43" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
-    </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E42" s="57"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="39"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E44" s="40"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jgC7epeQR5FjcDaoRFto27F3pz+rBPFgcxhFFExJo+xxdQwKkNOUf4DEFIiY0MmsCKKr2quyLlmcFQUR3CasNg==" saltValue="sgq4F9OGVvMvF+dPiEOCNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H+U62+a+SbW1vt359x2dNwjMNfd6TMNXp1zzpoEG25FU4CABEThgA9y0OhtKtHoI2foOIuvEu5R5BrKbl1yKBg==" saltValue="3oGXXzF+pktTwcxmdJwaVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <customSheetViews>
     <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" topLeftCell="A26">
-      <selection activeCell="F33" sqref="F33:G33"/>
+      <selection activeCell="F30" sqref="F30"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="23">
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E41:G42"/>
+  <mergeCells count="25">
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="D38:E39"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A24:H28"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A24:H28"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="E43:G44"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A31:D31" r:id="rId2" display="Unit Conversion the Easy Way (Dimensional Analysis)" xr:uid="{8AAADDF3-68A1-4C47-A9F9-B8A2CB10C5D6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="7" id="{320296C2-C020-41D7-AADE-55FB6C8E6AB3}">
-            <xm:f>NOT(ABS(D39-Solutions!D39)&lt;0.001)</xm:f>
+            <xm:f>NOT(ABS(D41-Solutions!D39)&lt;0.001)</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -2429,7 +2505,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="8" id="{1096F20E-5F85-4D62-86B5-ABD7B9B6790F}">
-            <xm:f>ABS(D39-Solutions!D39)&lt;0.001</xm:f>
+            <xm:f>ABS(D41-Solutions!D39)&lt;0.001</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -2438,7 +2514,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D39:I39</xm:sqref>
+          <xm:sqref>D41:I41</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2506,10 +2582,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="42"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2857,22 +2933,22 @@
     </row>
     <row r="30" spans="1:11" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43" t="s">
+      <c r="C30" s="49"/>
+      <c r="D30" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="43" t="s">
+      <c r="E30" s="49"/>
+      <c r="F30" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="51" t="s">
+      <c r="G30" s="50"/>
+      <c r="H30" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="52"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
@@ -2896,10 +2972,10 @@
       <c r="G31" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="27">
         <v>13</v>
       </c>
-      <c r="I31" s="47" t="s">
+      <c r="I31" s="28" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2907,22 +2983,22 @@
       <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="47"/>
       <c r="H32" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="48"/>
+      <c r="I32" s="29"/>
     </row>
     <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
@@ -2952,7 +3028,7 @@
         <f>D14/A14</f>
         <v>28.349523125000001</v>
       </c>
-      <c r="I33" s="49" t="s">
+      <c r="I33" s="30" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2960,22 +3036,22 @@
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="28"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="30"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="30"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="48"/>
+      <c r="I34" s="29"/>
     </row>
     <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
@@ -3005,7 +3081,7 @@
         <f>D21/A21</f>
         <v>3.28084</v>
       </c>
-      <c r="I35" s="49" t="s">
+      <c r="I35" s="30" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3013,27 +3089,27 @@
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
       <c r="F36" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="30"/>
+      <c r="G36" s="47"/>
       <c r="H36" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="48"/>
+      <c r="I36" s="29"/>
     </row>
     <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
       <c r="F37" s="17">
         <f>D12/A12</f>
         <v>2.2046199999999998</v>
@@ -3045,7 +3121,7 @@
         <f>H35</f>
         <v>3.28084</v>
       </c>
-      <c r="I37" s="49" t="s">
+      <c r="I37" s="30" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3053,22 +3129,22 @@
       <c r="A38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38" s="30"/>
+      <c r="B38" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="47"/>
+      <c r="F38" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="47"/>
       <c r="H38" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I38" s="48"/>
+      <c r="I38" s="29"/>
     </row>
     <row r="39" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
@@ -3098,7 +3174,7 @@
         <f>H31*H33*H35*H37</f>
         <v>3966.9727084474698</v>
       </c>
-      <c r="I39" s="50" t="s">
+      <c r="I39" s="31" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3110,14 +3186,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="17">
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
@@ -3127,6 +3195,14 @@
     <mergeCell ref="B36:C37"/>
     <mergeCell ref="D36:E37"/>
     <mergeCell ref="F36:G36"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
+++ b/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{105A65A0-BF6A-4D1D-AD68-D4F58DE4D447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{593BFC32-D51A-4652-9961-F0315D999329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1308" yWindow="900" windowWidth="20796" windowHeight="11424" xr2:uid="{AF244846-4AAD-42AC-8F96-96B174BB4566}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="73">
   <si>
     <t>Quantity of</t>
   </si>
@@ -304,6 +304,111 @@
   <si>
     <t>Search YouTube for "Unit Analysis" here is a nice video:</t>
   </si>
+  <si>
+    <t>baz</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>zap</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">z x bar x </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zap</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>baz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x foo</t>
+    </r>
+  </si>
+  <si>
+    <t>Just make sure the units cancel out as needed.</t>
+  </si>
+  <si>
+    <t>Just get the values to match the units for conversions.</t>
+  </si>
+  <si>
+    <t>Convert from baz/zap to bar/foo</t>
+  </si>
+  <si>
+    <t>See "silly" example below.</t>
+  </si>
 </sst>
 </file>
 
@@ -312,7 +417,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +452,14 @@
       <b/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -886,6 +999,97 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -893,7 +1097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1017,16 +1221,143 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1055,132 +1386,75 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1304,6 +1578,59 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>845820</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D017A9-E952-4489-9B16-B9C1B82236C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1767840" y="12740640"/>
+          <a:ext cx="2743200" cy="708660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1497,8 +1824,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{910A64A9-E54D-422E-A899-541B66D4BF36}">
-  <header guid="{910A64A9-E54D-422E-A899-541B66D4BF36}" dateTime="2020-11-11T21:12:24" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{642306E6-C1FC-46D0-B599-A1D6E0FBAB8B}">
+  <header guid="{642306E6-C1FC-46D0-B599-A1D6E0FBAB8B}" dateTime="2020-12-07T10:43:15" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1513,7 +1840,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{910A64A9-E54D-422E-A899-541B66D4BF36}" name="Richard Ketchersid" id="-1739534102" dateTime="2020-11-11T21:12:24"/>
+  <userInfo guid="{642306E6-C1FC-46D0-B599-A1D6E0FBAB8B}" name="Richard Ketchersid" id="-1739584607" dateTime="2020-12-07T10:43:15"/>
 </users>
 </file>
 
@@ -1814,10 +2141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE0E753-5E77-4073-B8CA-0383615E5C44}">
-  <dimension ref="A11:L44"/>
+  <dimension ref="A11:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1866,10 +2193,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="44"/>
+      <c r="H12" s="59"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2138,131 +2465,133 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="65"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="66"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="66"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="66"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="68"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="69"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="63" t="s">
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="66"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="102"/>
+      <c r="H30" s="68"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="48" t="s">
+      <c r="C32" s="61"/>
+      <c r="D32" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="48" t="s">
+      <c r="E32" s="61"/>
+      <c r="F32" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="35" t="s">
+      <c r="G32" s="62"/>
+      <c r="H32" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="36"/>
-    </row>
-    <row r="33" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="68"/>
+    </row>
+    <row r="33" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>33</v>
       </c>
@@ -2291,28 +2620,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="32" t="s">
+      <c r="C34" s="45"/>
+      <c r="D34" s="49" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="47"/>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="49" t="s">
         <v>35</v>
       </c>
       <c r="G34" s="47"/>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I34" s="63"/>
+    </row>
+    <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>36</v>
       </c>
@@ -2329,28 +2658,28 @@
       <c r="H35" s="17"/>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="32" t="s">
+      <c r="C36" s="45"/>
+      <c r="D36" s="49" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="47"/>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="49" t="s">
         <v>35</v>
       </c>
       <c r="G36" s="47"/>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="33"/>
-    </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I36" s="63"/>
+    </row>
+    <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>38</v>
       </c>
@@ -2367,58 +2696,58 @@
       <c r="H37" s="17"/>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="32" t="s">
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="49" t="s">
         <v>35</v>
       </c>
       <c r="G38" s="47"/>
-      <c r="H38" s="32" t="s">
+      <c r="H38" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="33"/>
-    </row>
-    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I38" s="63"/>
+    </row>
+    <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="59"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18"/>
       <c r="H39" s="17"/>
       <c r="I39" s="30"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="34" t="s">
+      <c r="B40" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="45"/>
+      <c r="D40" s="46" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="47"/>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="46" t="s">
         <v>2</v>
       </c>
       <c r="G40" s="47"/>
-      <c r="H40" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" s="33"/>
-    </row>
-    <row r="41" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H40" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="63"/>
+    </row>
+    <row r="41" spans="1:13" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
         <v>41</v>
       </c>
@@ -2435,29 +2764,401 @@
       <c r="H41" s="23"/>
       <c r="I41" s="31"/>
     </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E43" s="37" t="s">
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E43" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="39"/>
-    </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E44" s="40"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="42"/>
-    </row>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E44" s="72"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74"/>
+    </row>
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="86"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="88"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="89"/>
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="91"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="89"/>
+      <c r="B48" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2.2046199999999998</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="91"/>
+    </row>
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="89"/>
+      <c r="B49" s="3">
+        <v>5.67</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>29.573499999999999</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="91"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="89"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="81"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="91"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="89"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="91"/>
+    </row>
+    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="92">
+        <v>34</v>
+      </c>
+      <c r="B52" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="94">
+        <v>34</v>
+      </c>
+      <c r="E52" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="75">
+        <f>E48</f>
+        <v>2.2046199999999998</v>
+      </c>
+      <c r="H52" s="75" t="str">
+        <f>F48</f>
+        <v>bar</v>
+      </c>
+      <c r="I52" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="J52" s="75">
+        <f>E49</f>
+        <v>29.573499999999999</v>
+      </c>
+      <c r="K52" s="75" t="str">
+        <f>F49</f>
+        <v>zap</v>
+      </c>
+      <c r="L52" s="90"/>
+      <c r="M52" s="91"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="92"/>
+      <c r="B53" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="95"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="95"/>
+      <c r="G53" s="96">
+        <f>B48</f>
+        <v>1.23</v>
+      </c>
+      <c r="H53" s="96" t="str">
+        <f>C48</f>
+        <v>baz</v>
+      </c>
+      <c r="I53" s="95"/>
+      <c r="J53" s="96">
+        <f>B49</f>
+        <v>5.67</v>
+      </c>
+      <c r="K53" s="96" t="str">
+        <f>C49</f>
+        <v>foo</v>
+      </c>
+      <c r="L53" s="90"/>
+      <c r="M53" s="91"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="89"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="91"/>
+    </row>
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="89"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="95">
+        <v>34</v>
+      </c>
+      <c r="E55" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="77">
+        <f>E48</f>
+        <v>2.2046199999999998</v>
+      </c>
+      <c r="G55" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" s="75">
+        <f>E49</f>
+        <v>29.573499999999999</v>
+      </c>
+      <c r="I55" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="J55" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="K55" s="78"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="91"/>
+    </row>
+    <row r="56" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="84"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="98">
+        <f>B48</f>
+        <v>1.23</v>
+      </c>
+      <c r="G56" s="95"/>
+      <c r="H56" s="96">
+        <f>B49</f>
+        <v>5.67</v>
+      </c>
+      <c r="I56" s="95"/>
+      <c r="J56" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="K56" s="94"/>
+      <c r="L56" s="90"/>
+      <c r="M56" s="91"/>
+    </row>
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="99"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="91"/>
+    </row>
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="89"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="95">
+        <f>D55*E48/B48*E49/B49</f>
+        <v>317.85365930801106</v>
+      </c>
+      <c r="E58" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="K58" s="103"/>
+      <c r="L58" s="81"/>
+      <c r="M58" s="91"/>
+    </row>
+    <row r="59" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="89"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="90"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="91"/>
+    </row>
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="100"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="101"/>
+    </row>
+    <row r="61" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="H+U62+a+SbW1vt359x2dNwjMNfd6TMNXp1zzpoEG25FU4CABEThgA9y0OhtKtHoI2foOIuvEu5R5BrKbl1yKBg==" saltValue="3oGXXzF+pktTwcxmdJwaVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vIpyEE2LJYo+I36idqXxZiS0sfqq+akKYyLKYwR+uvPoh/VW9aa9FxTvQQzrMhP2laL1mt9S6t6eKu+5qiW3FQ==" saltValue="uzuArBX4i6iv7B6cHRi1Ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <customSheetViews>
-    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" topLeftCell="A26">
-      <selection activeCell="F30" sqref="F30"/>
+    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" topLeftCell="A41">
+      <selection activeCell="G62" sqref="G62"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="25">
+  <mergeCells count="43">
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J58:L59"/>
+    <mergeCell ref="G50:H51"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="E43:G44"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A24:H28"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="B40:C40"/>
@@ -2469,20 +3170,6 @@
     <mergeCell ref="B38:C39"/>
     <mergeCell ref="D38:E39"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A24:H28"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="E43:G44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A31:D31" r:id="rId2" display="Unit Conversion the Easy Way (Dimensional Analysis)" xr:uid="{8AAADDF3-68A1-4C47-A9F9-B8A2CB10C5D6}"/>
@@ -2582,10 +3269,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="44"/>
+      <c r="H12" s="59"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2933,22 +3620,22 @@
     </row>
     <row r="30" spans="1:11" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="48" t="s">
+      <c r="C30" s="61"/>
+      <c r="D30" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="48" t="s">
+      <c r="E30" s="61"/>
+      <c r="F30" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="35" t="s">
+      <c r="G30" s="62"/>
+      <c r="H30" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="36"/>
+      <c r="I30" s="68"/>
     </row>
     <row r="31" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
@@ -2983,15 +3670,15 @@
       <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="32" t="s">
+      <c r="C32" s="45"/>
+      <c r="D32" s="49" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="47"/>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="49" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="47"/>
@@ -3036,15 +3723,15 @@
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="32" t="s">
+      <c r="C34" s="45"/>
+      <c r="D34" s="49" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="47"/>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="49" t="s">
         <v>35</v>
       </c>
       <c r="G34" s="47"/>
@@ -3089,11 +3776,11 @@
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="32" t="s">
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="49" t="s">
         <v>35</v>
       </c>
       <c r="G36" s="47"/>
@@ -3106,10 +3793,10 @@
       <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="59"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
       <c r="F37" s="17">
         <f>D12/A12</f>
         <v>2.2046199999999998</v>
@@ -3129,15 +3816,15 @@
       <c r="A38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="34" t="s">
+      <c r="B38" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="47"/>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="46" t="s">
         <v>2</v>
       </c>
       <c r="G38" s="47"/>
@@ -3186,6 +3873,14 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="17">
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
@@ -3195,14 +3890,6 @@
     <mergeCell ref="B36:C37"/>
     <mergeCell ref="D36:E37"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
+++ b/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{593BFC32-D51A-4652-9961-F0315D999329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{1461CC6A-AAA4-4CA5-B015-4C11BFA2FE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1308" yWindow="900" windowWidth="20796" windowHeight="11424" xr2:uid="{AF244846-4AAD-42AC-8F96-96B174BB4566}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="74">
   <si>
     <t>Quantity of</t>
   </si>
@@ -409,6 +409,9 @@
   <si>
     <t>See "silly" example below.</t>
   </si>
+  <si>
+    <t>Video discussing B and C</t>
+  </si>
 </sst>
 </file>
 
@@ -417,7 +420,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +467,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1097,7 +1109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1232,189 +1244,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1423,38 +1257,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1824,8 +1840,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{642306E6-C1FC-46D0-B599-A1D6E0FBAB8B}">
-  <header guid="{642306E6-C1FC-46D0-B599-A1D6E0FBAB8B}" dateTime="2020-12-07T10:43:15" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2DDB0C1E-8396-496E-B9B8-A5301EEF0B39}">
+  <header guid="{2DDB0C1E-8396-496E-B9B8-A5301EEF0B39}" dateTime="2021-01-28T14:49:24" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1840,7 +1856,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{642306E6-C1FC-46D0-B599-A1D6E0FBAB8B}" name="Richard Ketchersid" id="-1739584607" dateTime="2020-12-07T10:43:15"/>
+  <userInfo guid="{2DDB0C1E-8396-496E-B9B8-A5301EEF0B39}" name="Richard Ketchersid" id="-1739573783" dateTime="2021-01-28T14:49:24"/>
 </users>
 </file>
 
@@ -2143,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE0E753-5E77-4073-B8CA-0383615E5C44}">
   <dimension ref="A11:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2193,10 +2209,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="59"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2465,73 +2481,73 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="85"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="88"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="64"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="91"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="85"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
@@ -2542,54 +2558,56 @@
       <c r="L29" s="34"/>
     </row>
     <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="102"/>
-      <c r="H30" s="68"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="55"/>
       <c r="I30" s="2"/>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="94"/>
       <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
+      <c r="F31" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="60" t="s">
+      <c r="C32" s="81"/>
+      <c r="D32" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="60" t="s">
+      <c r="E32" s="81"/>
+      <c r="F32" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="62"/>
-      <c r="H32" s="67" t="s">
+      <c r="G32" s="82"/>
+      <c r="H32" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="68"/>
+      <c r="I32" s="55"/>
     </row>
     <row r="33" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
@@ -2624,22 +2642,22 @@
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="49" t="s">
+      <c r="C34" s="78"/>
+      <c r="D34" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="49" t="s">
+      <c r="E34" s="79"/>
+      <c r="F34" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="47"/>
-      <c r="H34" s="49" t="s">
+      <c r="G34" s="79"/>
+      <c r="H34" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="63"/>
+      <c r="I34" s="67"/>
     </row>
     <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
@@ -2662,22 +2680,22 @@
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="49" t="s">
+      <c r="C36" s="78"/>
+      <c r="D36" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="49" t="s">
+      <c r="E36" s="79"/>
+      <c r="F36" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="49" t="s">
+      <c r="G36" s="79"/>
+      <c r="H36" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="63"/>
+      <c r="I36" s="67"/>
     </row>
     <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
@@ -2700,27 +2718,27 @@
       <c r="A38" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="49" t="s">
+      <c r="B38" s="96"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="47"/>
-      <c r="H38" s="49" t="s">
+      <c r="G38" s="79"/>
+      <c r="H38" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="63"/>
+      <c r="I38" s="67"/>
     </row>
     <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="103"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18"/>
       <c r="H39" s="17"/>
@@ -2730,22 +2748,22 @@
       <c r="A40" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="46" t="s">
+      <c r="C40" s="78"/>
+      <c r="D40" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="46" t="s">
+      <c r="E40" s="79"/>
+      <c r="F40" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="47"/>
-      <c r="H40" s="46" t="s">
+      <c r="G40" s="79"/>
+      <c r="H40" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="I40" s="63"/>
+      <c r="I40" s="67"/>
     </row>
     <row r="41" spans="1:13" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
@@ -2779,22 +2797,22 @@
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="86"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="88"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="40"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="89"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2810,16 +2828,16 @@
       <c r="F47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="91"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="43"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="89"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="3">
         <v>1.23</v>
       </c>
@@ -2835,16 +2853,16 @@
       <c r="F48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="91"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="43"/>
     </row>
     <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="89"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="3">
         <v>5.67</v>
       </c>
@@ -2860,273 +2878,301 @@
       <c r="F49" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="90"/>
-      <c r="K49" s="90"/>
-      <c r="L49" s="90"/>
-      <c r="M49" s="91"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="43"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="89"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="80" t="s">
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H50" s="81"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="91"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="43"/>
     </row>
     <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="89"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="91"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="43"/>
     </row>
     <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="92">
+      <c r="A52" s="65">
         <v>34</v>
       </c>
-      <c r="B52" s="75" t="s">
+      <c r="B52" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="93" t="s">
+      <c r="C52" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="94">
+      <c r="D52" s="57">
         <v>34</v>
       </c>
-      <c r="E52" s="75" t="s">
+      <c r="E52" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F52" s="95" t="s">
+      <c r="F52" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="G52" s="75">
+      <c r="G52" s="35">
         <f>E48</f>
         <v>2.2046199999999998</v>
       </c>
-      <c r="H52" s="75" t="str">
+      <c r="H52" s="35" t="str">
         <f>F48</f>
         <v>bar</v>
       </c>
-      <c r="I52" s="95" t="s">
+      <c r="I52" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="J52" s="75">
+      <c r="J52" s="35">
         <f>E49</f>
         <v>29.573499999999999</v>
       </c>
-      <c r="K52" s="75" t="str">
+      <c r="K52" s="35" t="str">
         <f>F49</f>
         <v>zap</v>
       </c>
-      <c r="L52" s="90"/>
-      <c r="M52" s="91"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="43"/>
     </row>
     <row r="53" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="92"/>
-      <c r="B53" s="96" t="s">
+      <c r="A53" s="65"/>
+      <c r="B53" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="95"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="96" t="s">
+      <c r="C53" s="58"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="95"/>
-      <c r="G53" s="96">
+      <c r="F53" s="58"/>
+      <c r="G53" s="44">
         <f>B48</f>
         <v>1.23</v>
       </c>
-      <c r="H53" s="96" t="str">
+      <c r="H53" s="44" t="str">
         <f>C48</f>
         <v>baz</v>
       </c>
-      <c r="I53" s="95"/>
-      <c r="J53" s="96">
+      <c r="I53" s="58"/>
+      <c r="J53" s="44">
         <f>B49</f>
         <v>5.67</v>
       </c>
-      <c r="K53" s="96" t="str">
+      <c r="K53" s="44" t="str">
         <f>C49</f>
         <v>foo</v>
       </c>
-      <c r="L53" s="90"/>
-      <c r="M53" s="91"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="43"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="89"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
-      <c r="K54" s="90"/>
-      <c r="L54" s="90"/>
-      <c r="M54" s="91"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="43"/>
     </row>
     <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="89"/>
-      <c r="B55" s="90"/>
-      <c r="C55" s="93" t="s">
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="95">
+      <c r="D55" s="58">
         <v>34</v>
       </c>
-      <c r="E55" s="95" t="s">
+      <c r="E55" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="F55" s="77">
+      <c r="F55" s="37">
         <f>E48</f>
         <v>2.2046199999999998</v>
       </c>
-      <c r="G55" s="95" t="s">
+      <c r="G55" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="H55" s="75">
+      <c r="H55" s="35">
         <f>E49</f>
         <v>29.573499999999999</v>
       </c>
-      <c r="I55" s="95" t="s">
+      <c r="I55" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="J55" s="78" t="s">
+      <c r="J55" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="K55" s="78"/>
-      <c r="L55" s="90"/>
-      <c r="M55" s="91"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="43"/>
     </row>
     <row r="56" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="97" t="s">
+      <c r="A56" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="84"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="98">
+      <c r="B56" s="50"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="45">
         <f>B48</f>
         <v>1.23</v>
       </c>
-      <c r="G56" s="95"/>
-      <c r="H56" s="96">
+      <c r="G56" s="58"/>
+      <c r="H56" s="44">
         <f>B49</f>
         <v>5.67</v>
       </c>
-      <c r="I56" s="95"/>
-      <c r="J56" s="94" t="s">
+      <c r="I56" s="58"/>
+      <c r="J56" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="K56" s="94"/>
-      <c r="L56" s="90"/>
-      <c r="M56" s="91"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="43"/>
     </row>
     <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="99"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="91"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="43"/>
     </row>
     <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="89"/>
-      <c r="B58" s="90"/>
-      <c r="C58" s="93" t="s">
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="95">
+      <c r="D58" s="58">
         <f>D55*E48/B48*E49/B49</f>
         <v>317.85365930801106</v>
       </c>
-      <c r="E58" s="75" t="s">
+      <c r="E58" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="80" t="s">
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="K58" s="103"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="91"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="43"/>
     </row>
     <row r="59" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="89"/>
-      <c r="B59" s="90"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="95"/>
-      <c r="E59" s="96" t="s">
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="91"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="43"/>
     </row>
     <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="101"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="47"/>
     </row>
     <row r="61" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vIpyEE2LJYo+I36idqXxZiS0sfqq+akKYyLKYwR+uvPoh/VW9aa9FxTvQQzrMhP2laL1mt9S6t6eKu+5qiW3FQ==" saltValue="uzuArBX4i6iv7B6cHRi1Ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3F48rWMfv4o/Jbfu+RLDl8jAVOotIfd5Dfo+rkBef9z5amiQXpIS1+uPMTBbQZU311XU9jz4kF105KOmGhWnEQ==" saltValue="nhwhomGFQ/xj9B5kge1Naw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <customSheetViews>
-    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" topLeftCell="A41">
-      <selection activeCell="G62" sqref="G62"/>
+    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" topLeftCell="A26">
+      <selection activeCell="L32" sqref="L32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="43">
+  <mergeCells count="44">
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="D38:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="E43:G44"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A24:H28"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H40:I40"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="A56:B57"/>
     <mergeCell ref="F30:H30"/>
@@ -3143,40 +3189,14 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="D52:D53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="E43:G44"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A24:H28"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="D38:E39"/>
-    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A31:D31" r:id="rId2" display="Unit Conversion the Easy Way (Dimensional Analysis)" xr:uid="{8AAADDF3-68A1-4C47-A9F9-B8A2CB10C5D6}"/>
+    <hyperlink ref="F31:H31" r:id="rId3" display="Video discussing B and C" xr:uid="{EE9C2CD8-33D3-4803-AA1A-E6BAE7F321D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3269,10 +3289,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="59"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -3620,22 +3640,22 @@
     </row>
     <row r="30" spans="1:11" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="60" t="s">
+      <c r="C30" s="81"/>
+      <c r="D30" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="60" t="s">
+      <c r="E30" s="81"/>
+      <c r="F30" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="62"/>
-      <c r="H30" s="67" t="s">
+      <c r="G30" s="82"/>
+      <c r="H30" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="68"/>
+      <c r="I30" s="55"/>
     </row>
     <row r="31" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
@@ -3670,18 +3690,18 @@
       <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="49" t="s">
+      <c r="C32" s="78"/>
+      <c r="D32" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="49" t="s">
+      <c r="E32" s="79"/>
+      <c r="F32" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="47"/>
+      <c r="G32" s="79"/>
       <c r="H32" s="25" t="s">
         <v>35</v>
       </c>
@@ -3723,18 +3743,18 @@
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="49" t="s">
+      <c r="C34" s="78"/>
+      <c r="D34" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="49" t="s">
+      <c r="E34" s="79"/>
+      <c r="F34" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="47"/>
+      <c r="G34" s="79"/>
       <c r="H34" s="25" t="s">
         <v>35</v>
       </c>
@@ -3776,14 +3796,14 @@
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="49" t="s">
+      <c r="B36" s="96"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="47"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="25" t="s">
         <v>35</v>
       </c>
@@ -3793,10 +3813,10 @@
       <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="103"/>
       <c r="F37" s="17">
         <f>D12/A12</f>
         <v>2.2046199999999998</v>
@@ -3816,18 +3836,18 @@
       <c r="A38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="46" t="s">
+      <c r="C38" s="78"/>
+      <c r="D38" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="46" t="s">
+      <c r="E38" s="79"/>
+      <c r="F38" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="47"/>
+      <c r="G38" s="79"/>
       <c r="H38" s="26" t="s">
         <v>2</v>
       </c>
@@ -3873,14 +3893,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="17">
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
@@ -3890,6 +3902,14 @@
     <mergeCell ref="B36:C37"/>
     <mergeCell ref="D36:E37"/>
     <mergeCell ref="F36:G36"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
+++ b/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{1461CC6A-AAA4-4CA5-B015-4C11BFA2FE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{A401BA32-D30E-40C1-9C60-F6B236DBA2D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="900" windowWidth="20796" windowHeight="11424" xr2:uid="{AF244846-4AAD-42AC-8F96-96B174BB4566}"/>
+    <workbookView xWindow="1635" yWindow="1125" windowWidth="25995" windowHeight="14280" xr2:uid="{AF244846-4AAD-42AC-8F96-96B174BB4566}"/>
   </bookViews>
   <sheets>
     <sheet name="Conversions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="81">
   <si>
     <t>Quantity of</t>
   </si>
@@ -411,6 +411,54 @@
   </si>
   <si>
     <t>Video discussing B and C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Convert ounces per feet per gallon to grams per meter per liter</t>
+    </r>
+  </si>
+  <si>
+    <t>oz/(ft*gal) 
+= oz/ft/gal
+=oz/gal/ft</t>
+  </si>
+  <si>
+    <t>Video Discussing D</t>
+  </si>
+  <si>
+    <t>A little algebra:
+a/b/c = (a/b)*(1/c) = a/(b*c)
+= (a/c)*(1/b)=a/c/b</t>
+  </si>
+  <si>
+    <t>gal/L</t>
+  </si>
+  <si>
+    <t>g/m/L
+=g/(m*L)
+=g/L/m</t>
+  </si>
+  <si>
+    <t>On this sheet, you will consider several conversions related to calculations you might see in a professional context.  For each conversion, you'll identify and apply appropriate ratios to yield the given result.  Remember that ratios can use either unit over the other, and that you should order ratios so that units cancel in the numerator and denominator for intermediate steps.
+First, examine this conversion factor table; you will use conversion factors from this table.  Note that if you use a ratio of the Second Units over the First Units, then your multiplier will be the conversion factor itself; on the other hand, if you use a ratio of the First Units over the Second units, then your multiplier will be 1 divided by the conversion factor.  For example, when multiplying by lb/kg, you would multiply by D12/A12; when multiplying by kg/lb, you would multiply by A12/D12.</t>
   </si>
 </sst>
 </file>
@@ -477,7 +525,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,8 +562,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1104,12 +1158,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1265,6 +1332,159 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1280,15 +1500,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1298,9 +1510,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1322,155 +1531,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1507,95 +1639,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>460375</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E039B2-37D8-4353-B95F-234DF6FDD20A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8337550" cy="1746250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>On</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> this sheet, you will consider several conversions related to calculations you might see in a professional context.  For each conversion, you'll identify and apply appropriate ratios to yield the given result.  Remember that ratios can use either unit over the other, and that you should order ratios so that units cancel in the numerator and denominator for intermediate steps.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>First, examine this conversion factor table; you will use conversion factors from this table.  Note that if you use a ratio of the Second Units over the First Units, then your multiplier will be the conversion factor itself; on the other hand, if you use a ratio of the First Units over the Second units, then your multiplier will be 1 divided by the conversion factor.  For example, when multiplying by lb/kg, you would multiply by D12; when multiplying by kg/lb, you would multiply by 1/D12.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1840,8 +1883,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2DDB0C1E-8396-496E-B9B8-A5301EEF0B39}">
-  <header guid="{2DDB0C1E-8396-496E-B9B8-A5301EEF0B39}" dateTime="2021-01-28T14:49:24" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AE946493-CC91-430D-8575-1D4F9A2A0E65}">
+  <header guid="{AE946493-CC91-430D-8575-1D4F9A2A0E65}" dateTime="2021-04-01T13:28:52" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1856,7 +1899,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{2DDB0C1E-8396-496E-B9B8-A5301EEF0B39}" name="Richard Ketchersid" id="-1739573783" dateTime="2021-01-28T14:49:24"/>
+  <userInfo guid="{AE946493-CC91-430D-8575-1D4F9A2A0E65}" name="Richard Ketchersid" id="-1739548540" dateTime="2021-04-01T13:28:52"/>
 </users>
 </file>
 
@@ -2157,19 +2200,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE0E753-5E77-4073-B8CA-0383615E5C44}">
-  <dimension ref="A11:M61"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="9" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="119"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="122"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="120"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="122"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="122"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="120"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="122"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="120"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="122"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="120"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="122"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="125"/>
+    </row>
+    <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2192,7 +2327,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -2209,15 +2344,15 @@
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="75" t="s">
+      <c r="G12" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="76"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -2244,7 +2379,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -2271,7 +2406,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -2298,7 +2433,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -2325,7 +2460,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -2352,7 +2487,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -2375,7 +2510,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -2398,7 +2533,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -2421,7 +2556,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -2444,7 +2579,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -2467,7 +2602,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2480,74 +2615,74 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
+    <row r="24" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="88"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="76"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="78"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="88"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="76"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="78"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="86"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="88"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="76"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="78"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="89"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="91"/>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="79"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="83" t="s">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
@@ -2557,59 +2692,67 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
     </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="86"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="78"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="2"/>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
     </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="92" t="s">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="94"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
       <c r="E31" s="33"/>
       <c r="F31" s="104" t="s">
         <v>73</v>
       </c>
       <c r="G31" s="104"/>
       <c r="H31" s="104"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I31" s="104"/>
+      <c r="J31" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" s="115"/>
+    </row>
+    <row r="32" spans="1:13" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="80" t="s">
+      <c r="C32" s="71"/>
+      <c r="D32" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="81"/>
-      <c r="F32" s="80" t="s">
+      <c r="E32" s="71"/>
+      <c r="F32" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="82"/>
-      <c r="H32" s="53" t="s">
+      <c r="G32" s="72"/>
+      <c r="H32" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="55"/>
-    </row>
-    <row r="33" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="61"/>
+      <c r="J32" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" s="107"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+    </row>
+    <row r="33" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>33</v>
       </c>
@@ -2634,32 +2777,47 @@
       <c r="H33" s="27">
         <v>13</v>
       </c>
-      <c r="I33" s="28" t="s">
+      <c r="I33" s="105" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J33" s="108">
+        <v>40</v>
+      </c>
+      <c r="K33" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="L33" s="112" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" s="113"/>
+      <c r="N33" s="114"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="66" t="s">
+      <c r="C34" s="49"/>
+      <c r="D34" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="66" t="s">
+      <c r="E34" s="51"/>
+      <c r="F34" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="79"/>
-      <c r="H34" s="66" t="s">
+      <c r="G34" s="51"/>
+      <c r="H34" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="67"/>
-    </row>
-    <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I34" s="51"/>
+      <c r="J34" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="111"/>
+    </row>
+    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>36</v>
       </c>
@@ -2674,30 +2832,36 @@
       <c r="F35" s="17"/>
       <c r="G35" s="18"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="30"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I35" s="18"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="116"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="66" t="s">
+      <c r="C36" s="49"/>
+      <c r="D36" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="66" t="s">
+      <c r="E36" s="51"/>
+      <c r="F36" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="79"/>
-      <c r="H36" s="66" t="s">
+      <c r="G36" s="51"/>
+      <c r="H36" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="67"/>
-    </row>
-    <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I36" s="51"/>
+      <c r="J36" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" s="111"/>
+    </row>
+    <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>38</v>
       </c>
@@ -2712,60 +2876,72 @@
       <c r="F37" s="17"/>
       <c r="G37" s="18"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="30"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I37" s="18"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="30"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="96"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="66" t="s">
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="79"/>
-      <c r="H38" s="66" t="s">
+      <c r="G38" s="51"/>
+      <c r="H38" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="67"/>
-    </row>
-    <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I38" s="51"/>
+      <c r="J38" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38" s="111"/>
+    </row>
+    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="98"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="103"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="30"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I39" s="18"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="30"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="68" t="s">
+      <c r="C40" s="49"/>
+      <c r="D40" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="68" t="s">
+      <c r="E40" s="51"/>
+      <c r="F40" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="79"/>
-      <c r="H40" s="68" t="s">
+      <c r="G40" s="51"/>
+      <c r="H40" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="I40" s="67"/>
-    </row>
-    <row r="41" spans="1:13" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I40" s="51"/>
+      <c r="J40" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="111"/>
+    </row>
+    <row r="41" spans="1:14" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>41</v>
       </c>
@@ -2780,23 +2956,25 @@
       <c r="F41" s="23"/>
       <c r="G41" s="24"/>
       <c r="H41" s="23"/>
-      <c r="I41" s="31"/>
-    </row>
-    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E43" s="69" t="s">
+      <c r="I41" s="24"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="31"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E43" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="71"/>
-    </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E44" s="72"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="74"/>
-    </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="63"/>
+      <c r="G43" s="64"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="65"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -2811,7 +2989,7 @@
       <c r="L46" s="39"/>
       <c r="M46" s="40"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="1" t="s">
         <v>0</v>
@@ -2836,7 +3014,7 @@
       <c r="L47" s="42"/>
       <c r="M47" s="43"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="3">
         <v>1.23</v>
@@ -2861,7 +3039,7 @@
       <c r="L48" s="42"/>
       <c r="M48" s="43"/>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="41"/>
       <c r="B49" s="3">
         <v>5.67</v>
@@ -2886,55 +3064,55 @@
       <c r="L49" s="42"/>
       <c r="M49" s="43"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
       <c r="D50" s="42"/>
       <c r="E50" s="42"/>
       <c r="F50" s="42"/>
-      <c r="G50" s="59" t="s">
+      <c r="G50" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="H50" s="61"/>
+      <c r="H50" s="98"/>
       <c r="I50" s="42"/>
       <c r="J50" s="42"/>
       <c r="K50" s="42"/>
       <c r="L50" s="42"/>
       <c r="M50" s="43"/>
     </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="41"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42"/>
       <c r="D51" s="42"/>
       <c r="E51" s="42"/>
       <c r="F51" s="42"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="64"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="101"/>
       <c r="I51" s="42"/>
       <c r="J51" s="42"/>
       <c r="K51" s="42"/>
       <c r="L51" s="42"/>
       <c r="M51" s="43"/>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="65">
+    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="102">
         <v>34</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="57">
+      <c r="D52" s="95">
         <v>34</v>
       </c>
       <c r="E52" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F52" s="58" t="s">
+      <c r="F52" s="87" t="s">
         <v>66</v>
       </c>
       <c r="G52" s="35">
@@ -2945,7 +3123,7 @@
         <f>F48</f>
         <v>bar</v>
       </c>
-      <c r="I52" s="58" t="s">
+      <c r="I52" s="87" t="s">
         <v>66</v>
       </c>
       <c r="J52" s="35">
@@ -2959,17 +3137,17 @@
       <c r="L52" s="42"/>
       <c r="M52" s="43"/>
     </row>
-    <row r="53" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="65"/>
+    <row r="53" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="102"/>
       <c r="B53" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="95"/>
       <c r="E53" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="58"/>
+      <c r="F53" s="87"/>
       <c r="G53" s="44">
         <f>B48</f>
         <v>1.23</v>
@@ -2978,7 +3156,7 @@
         <f>C48</f>
         <v>baz</v>
       </c>
-      <c r="I53" s="58"/>
+      <c r="I53" s="87"/>
       <c r="J53" s="44">
         <f>B49</f>
         <v>5.67</v>
@@ -2990,7 +3168,7 @@
       <c r="L53" s="42"/>
       <c r="M53" s="43"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
@@ -3005,67 +3183,67 @@
       <c r="L54" s="42"/>
       <c r="M54" s="43"/>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
       <c r="B55" s="42"/>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="58">
+      <c r="D55" s="87">
         <v>34</v>
       </c>
-      <c r="E55" s="58" t="s">
+      <c r="E55" s="87" t="s">
         <v>66</v>
       </c>
       <c r="F55" s="37">
         <f>E48</f>
         <v>2.2046199999999998</v>
       </c>
-      <c r="G55" s="58" t="s">
+      <c r="G55" s="87" t="s">
         <v>66</v>
       </c>
       <c r="H55" s="35">
         <f>E49</f>
         <v>29.573499999999999</v>
       </c>
-      <c r="I55" s="58" t="s">
+      <c r="I55" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="J55" s="56" t="s">
+      <c r="J55" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="K55" s="56"/>
+      <c r="K55" s="94"/>
       <c r="L55" s="42"/>
       <c r="M55" s="43"/>
     </row>
-    <row r="56" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="49" t="s">
+    <row r="56" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
       <c r="F56" s="45">
         <f>B48</f>
         <v>1.23</v>
       </c>
-      <c r="G56" s="58"/>
+      <c r="G56" s="87"/>
       <c r="H56" s="44">
         <f>B49</f>
         <v>5.67</v>
       </c>
-      <c r="I56" s="58"/>
-      <c r="J56" s="57" t="s">
+      <c r="I56" s="87"/>
+      <c r="J56" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="K56" s="57"/>
+      <c r="K56" s="95"/>
       <c r="L56" s="42"/>
       <c r="M56" s="43"/>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="51"/>
-      <c r="B57" s="52"/>
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="91"/>
+      <c r="B57" s="92"/>
       <c r="C57" s="42"/>
       <c r="D57" s="42"/>
       <c r="E57" s="42"/>
@@ -3078,13 +3256,13 @@
       <c r="L57" s="42"/>
       <c r="M57" s="43"/>
     </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
       <c r="B58" s="42"/>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="58">
+      <c r="D58" s="87">
         <f>D55*E48/B48*E49/B49</f>
         <v>317.85365930801106</v>
       </c>
@@ -3095,18 +3273,18 @@
       <c r="G58" s="42"/>
       <c r="H58" s="42"/>
       <c r="I58" s="42"/>
-      <c r="J58" s="59" t="s">
+      <c r="J58" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="K58" s="60"/>
-      <c r="L58" s="61"/>
+      <c r="K58" s="97"/>
+      <c r="L58" s="98"/>
       <c r="M58" s="43"/>
     </row>
-    <row r="59" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="41"/>
       <c r="B59" s="42"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="58"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="87"/>
       <c r="E59" s="44" t="s">
         <v>64</v>
       </c>
@@ -3114,12 +3292,12 @@
       <c r="G59" s="42"/>
       <c r="H59" s="42"/>
       <c r="I59" s="42"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="64"/>
+      <c r="J59" s="99"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="101"/>
       <c r="M59" s="43"/>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="46"/>
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
@@ -3134,45 +3312,25 @@
       <c r="L60" s="36"/>
       <c r="M60" s="47"/>
     </row>
-    <row r="61" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3F48rWMfv4o/Jbfu+RLDl8jAVOotIfd5Dfo+rkBef9z5amiQXpIS1+uPMTBbQZU311XU9jz4kF105KOmGhWnEQ==" saltValue="nhwhomGFQ/xj9B5kge1Naw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="guMn76Rrfnbktz1qP4vSYHvXqxVpfKLwgGTsjJnjxWhPUKdv5aAzk+N5j/Ow2o0r/1ZDTCiSBTYO5kFf3PC35g==" saltValue="r9J9GgCW84uAaheHC7v1RQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
-    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" topLeftCell="A26">
-      <selection activeCell="L32" sqref="L32"/>
+    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}">
+      <selection activeCell="L17" sqref="L17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="44">
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="D38:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="E43:G44"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A24:H28"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H40:I40"/>
+  <mergeCells count="52">
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A1:H9"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J36:K36"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="A56:B57"/>
     <mergeCell ref="F30:H30"/>
@@ -3189,14 +3347,43 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="D52:D53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="E43:G44"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A24:H28"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="D38:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H32:I32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A31:D31" r:id="rId2" display="Unit Conversion the Easy Way (Dimensional Analysis)" xr:uid="{8AAADDF3-68A1-4C47-A9F9-B8A2CB10C5D6}"/>
     <hyperlink ref="F31:H31" r:id="rId3" display="Video discussing B and C" xr:uid="{EE9C2CD8-33D3-4803-AA1A-E6BAE7F321D4}"/>
+    <hyperlink ref="J31:K31" r:id="rId4" display="Video Discussing D" xr:uid="{1E497E25-1C5B-4F7A-8571-2498A4DB8EBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3221,7 +3408,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D41:I41</xm:sqref>
+          <xm:sqref>D41:K41</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3231,25 +3418,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1BCCF5-0FED-40B4-A2E6-E7A0679B1D51}">
-  <dimension ref="A11:K39"/>
+  <dimension ref="A11:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="10" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3272,7 +3460,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -3289,15 +3477,15 @@
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="75" t="s">
+      <c r="G12" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="76"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -3324,7 +3512,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -3351,7 +3539,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -3378,7 +3566,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -3405,7 +3593,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -3432,7 +3620,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -3455,7 +3643,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -3478,7 +3666,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -3501,7 +3689,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -3524,7 +3712,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -3547,7 +3735,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3560,7 +3748,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3573,7 +3761,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3586,7 +3774,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3599,7 +3787,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3612,7 +3800,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3625,7 +3813,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3638,26 +3826,32 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="80" t="s">
+      <c r="C30" s="71"/>
+      <c r="D30" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="81"/>
-      <c r="F30" s="80" t="s">
+      <c r="E30" s="71"/>
+      <c r="F30" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="82"/>
-      <c r="H30" s="53" t="s">
+      <c r="G30" s="72"/>
+      <c r="H30" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="55"/>
-    </row>
-    <row r="31" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="61"/>
+      <c r="J30" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30" s="107"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+    </row>
+    <row r="31" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>33</v>
       </c>
@@ -3685,29 +3879,44 @@
       <c r="I31" s="28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J31" s="108">
+        <v>40</v>
+      </c>
+      <c r="K31" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="L31" s="112" t="s">
+        <v>77</v>
+      </c>
+      <c r="M31" s="113"/>
+      <c r="N31" s="114"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="66" t="s">
+      <c r="C32" s="49"/>
+      <c r="D32" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="79"/>
-      <c r="F32" s="66" t="s">
+      <c r="E32" s="51"/>
+      <c r="F32" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="79"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I32" s="29"/>
-    </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J32" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="111"/>
+    </row>
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>36</v>
       </c>
@@ -3738,29 +3947,40 @@
       <c r="I33" s="30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="17">
+        <f>D14/A14</f>
+        <v>28.349523125000001</v>
+      </c>
+      <c r="K33" s="116" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="66" t="s">
+      <c r="C34" s="49"/>
+      <c r="D34" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="66" t="s">
+      <c r="E34" s="51"/>
+      <c r="F34" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="79"/>
+      <c r="G34" s="51"/>
       <c r="H34" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I34" s="29"/>
-    </row>
-    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J34" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="111"/>
+    </row>
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>38</v>
       </c>
@@ -3791,32 +4011,43 @@
       <c r="I35" s="30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="17">
+        <f>D21/A21</f>
+        <v>3.28084</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="96"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="66" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="79"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I36" s="29"/>
-    </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J36" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" s="111"/>
+    </row>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="98"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="103"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
       <c r="F37" s="17">
         <f>D12/A12</f>
         <v>2.2046199999999998</v>
@@ -3831,29 +4062,40 @@
       <c r="I37" s="30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="17">
+        <f>D19/A19</f>
+        <v>0.26417205235800001</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="95" t="s">
+      <c r="B38" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="68" t="s">
+      <c r="C38" s="49"/>
+      <c r="D38" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="68" t="s">
+      <c r="E38" s="51"/>
+      <c r="F38" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="79"/>
+      <c r="G38" s="51"/>
       <c r="H38" s="26" t="s">
         <v>2</v>
       </c>
       <c r="I38" s="29"/>
-    </row>
-    <row r="39" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J38" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38" s="111"/>
+    </row>
+    <row r="39" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>41</v>
       </c>
@@ -3884,15 +4126,36 @@
       <c r="I39" s="31" t="s">
         <v>56</v>
       </c>
+      <c r="J39" s="23">
+        <f>J31*J33*J35*J37</f>
+        <v>982.82833949536575</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" state="hidden" topLeftCell="A35">
-      <selection activeCell="I38" sqref="I38"/>
+    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" state="hidden" topLeftCell="A30">
+      <selection activeCell="J39" sqref="J39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="17">
+  <mergeCells count="23">
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
@@ -3902,14 +4165,6 @@
     <mergeCell ref="B36:C37"/>
     <mergeCell ref="D36:E37"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
+++ b/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{A401BA32-D30E-40C1-9C60-F6B236DBA2D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{61AAFAEA-F7B2-4537-B486-B698E35DA8D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="1125" windowWidth="25995" windowHeight="14280" xr2:uid="{AF244846-4AAD-42AC-8F96-96B174BB4566}"/>
   </bookViews>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t>ft/m</t>
-  </si>
-  <si>
-    <t>Unit Conversion the Easy Way (Dimensional Analysis)</t>
   </si>
   <si>
     <t>Search YouTube for "Unit Analysis" here is a nice video:</t>
@@ -459,6 +456,9 @@
   <si>
     <t>On this sheet, you will consider several conversions related to calculations you might see in a professional context.  For each conversion, you'll identify and apply appropriate ratios to yield the given result.  Remember that ratios can use either unit over the other, and that you should order ratios so that units cancel in the numerator and denominator for intermediate steps.
 First, examine this conversion factor table; you will use conversion factors from this table.  Note that if you use a ratio of the Second Units over the First Units, then your multiplier will be the conversion factor itself; on the other hand, if you use a ratio of the First Units over the Second units, then your multiplier will be 1 divided by the conversion factor.  For example, when multiplying by lb/kg, you would multiply by D12/A12; when multiplying by kg/lb, you would multiply by A12/D12.</t>
+  </si>
+  <si>
+    <t>Video discussing part A</t>
   </si>
 </sst>
 </file>
@@ -1332,59 +1332,133 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1414,6 +1488,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1462,147 +1544,65 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1690,6 +1690,156 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1095376</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBA5045-A1EF-44C8-A100-B09E498C78E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876551" y="6543675"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C784CC2-1730-488E-872C-B9390F23F7E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="6534150"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9F5591-C19B-400D-8F36-6225E3BFD52B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11544300" y="6534150"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1883,8 +2033,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AE946493-CC91-430D-8575-1D4F9A2A0E65}">
-  <header guid="{AE946493-CC91-430D-8575-1D4F9A2A0E65}" dateTime="2021-04-01T13:28:52" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{08C61B69-BC19-4BFD-AC97-14D8AB8B266E}">
+  <header guid="{08C61B69-BC19-4BFD-AC97-14D8AB8B266E}" dateTime="2021-06-10T08:41:52" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1898,9 +2048,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{AE946493-CC91-430D-8575-1D4F9A2A0E65}" name="Richard Ketchersid" id="-1739548540" dateTime="2021-04-01T13:28:52"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2202,8 +2350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE0E753-5E77-4073-B8CA-0383615E5C44}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,96 +2361,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="119"/>
+      <c r="A1" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="122"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="120"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="120"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="122"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="122"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="120"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="122"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="122"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="120"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="122"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="123"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="125"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -2344,10 +2492,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="69"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2616,73 +2764,73 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="104"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="78"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="107"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="78"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="107"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="78"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="107"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="79"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="110"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="75"/>
+      <c r="A29" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="104"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
@@ -2693,64 +2841,64 @@
       <c r="L29" s="34"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="78"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="107"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="93"/>
-      <c r="H30" s="61"/>
+      <c r="F30" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="123"/>
+      <c r="H30" s="66"/>
       <c r="I30" s="2"/>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
+      <c r="A31" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="122"/>
       <c r="E31" s="33"/>
-      <c r="F31" s="104" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="115" t="s">
-        <v>76</v>
-      </c>
-      <c r="K31" s="115"/>
+      <c r="F31" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31" s="125"/>
     </row>
     <row r="32" spans="1:13" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="70" t="s">
+      <c r="C32" s="100"/>
+      <c r="D32" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="70" t="s">
+      <c r="E32" s="100"/>
+      <c r="F32" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="72"/>
-      <c r="H32" s="60" t="s">
+      <c r="G32" s="101"/>
+      <c r="H32" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="61"/>
-      <c r="J32" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="K32" s="107"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" s="66"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
     </row>
     <row r="33" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
@@ -2777,45 +2925,45 @@
       <c r="H33" s="27">
         <v>13</v>
       </c>
-      <c r="I33" s="105" t="s">
+      <c r="I33" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="J33" s="108">
+      <c r="J33" s="50">
         <v>40</v>
       </c>
-      <c r="K33" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="L33" s="112" t="s">
-        <v>77</v>
-      </c>
-      <c r="M33" s="113"/>
-      <c r="N33" s="114"/>
+      <c r="K33" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="M33" s="54"/>
+      <c r="N33" s="55"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50" t="s">
+      <c r="C34" s="98"/>
+      <c r="D34" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="50" t="s">
+      <c r="E34" s="87"/>
+      <c r="F34" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="51"/>
-      <c r="H34" s="50" t="s">
+      <c r="G34" s="87"/>
+      <c r="H34" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="51"/>
-      <c r="J34" s="110" t="s">
+      <c r="I34" s="87"/>
+      <c r="J34" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="111"/>
+      <c r="K34" s="68"/>
     </row>
     <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -2834,32 +2982,32 @@
       <c r="H35" s="17"/>
       <c r="I35" s="18"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="116"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50" t="s">
+      <c r="C36" s="98"/>
+      <c r="D36" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="50" t="s">
+      <c r="E36" s="87"/>
+      <c r="F36" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="51"/>
-      <c r="H36" s="50" t="s">
+      <c r="G36" s="87"/>
+      <c r="H36" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="51"/>
-      <c r="J36" s="110" t="s">
+      <c r="I36" s="87"/>
+      <c r="J36" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="111"/>
+      <c r="K36" s="68"/>
     </row>
     <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
@@ -2884,31 +3032,31 @@
       <c r="A38" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="50" t="s">
+      <c r="B38" s="112"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="51"/>
-      <c r="H38" s="50" t="s">
+      <c r="G38" s="87"/>
+      <c r="H38" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="51"/>
-      <c r="J38" s="110" t="s">
+      <c r="I38" s="87"/>
+      <c r="J38" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="111"/>
+      <c r="K38" s="68"/>
     </row>
     <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="59"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18"/>
       <c r="H39" s="17"/>
@@ -2920,26 +3068,26 @@
       <c r="A40" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="86" t="s">
+      <c r="C40" s="98"/>
+      <c r="D40" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="86" t="s">
+      <c r="E40" s="87"/>
+      <c r="F40" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="86" t="s">
+      <c r="G40" s="87"/>
+      <c r="H40" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="I40" s="51"/>
-      <c r="J40" s="110" t="s">
+      <c r="I40" s="87"/>
+      <c r="J40" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="K40" s="111"/>
+      <c r="K40" s="68"/>
     </row>
     <row r="41" spans="1:14" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
@@ -2962,16 +3110,16 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E43" s="62" t="s">
+      <c r="E43" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="63"/>
-      <c r="G43" s="64"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="91"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="65"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="94"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3020,7 +3168,7 @@
         <v>1.23</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>2</v>
@@ -3029,7 +3177,7 @@
         <v>2.2046199999999998</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="42"/>
       <c r="H48" s="42"/>
@@ -3045,7 +3193,7 @@
         <v>5.67</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>2</v>
@@ -3054,7 +3202,7 @@
         <v>29.573499999999999</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G49" s="42"/>
       <c r="H49" s="42"/>
@@ -3071,10 +3219,10 @@
       <c r="D50" s="42"/>
       <c r="E50" s="42"/>
       <c r="F50" s="42"/>
-      <c r="G50" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="H50" s="98"/>
+      <c r="G50" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="81"/>
       <c r="I50" s="42"/>
       <c r="J50" s="42"/>
       <c r="K50" s="42"/>
@@ -3088,8 +3236,8 @@
       <c r="D51" s="42"/>
       <c r="E51" s="42"/>
       <c r="F51" s="42"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="101"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="84"/>
       <c r="I51" s="42"/>
       <c r="J51" s="42"/>
       <c r="K51" s="42"/>
@@ -3097,23 +3245,23 @@
       <c r="M51" s="43"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="102">
+      <c r="A52" s="85">
         <v>34</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="95">
+      <c r="D52" s="77">
         <v>34</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" s="87" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="F52" s="78" t="s">
+        <v>65</v>
       </c>
       <c r="G52" s="35">
         <f>E48</f>
@@ -3123,8 +3271,8 @@
         <f>F48</f>
         <v>bar</v>
       </c>
-      <c r="I52" s="87" t="s">
-        <v>66</v>
+      <c r="I52" s="78" t="s">
+        <v>65</v>
       </c>
       <c r="J52" s="35">
         <f>E49</f>
@@ -3138,16 +3286,16 @@
       <c r="M52" s="43"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="102"/>
+      <c r="A53" s="85"/>
       <c r="B53" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="87"/>
-      <c r="D53" s="95"/>
+        <v>64</v>
+      </c>
+      <c r="C53" s="78"/>
+      <c r="D53" s="77"/>
       <c r="E53" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" s="87"/>
+        <v>64</v>
+      </c>
+      <c r="F53" s="78"/>
       <c r="G53" s="44">
         <f>B48</f>
         <v>1.23</v>
@@ -3156,7 +3304,7 @@
         <f>C48</f>
         <v>baz</v>
       </c>
-      <c r="I53" s="87"/>
+      <c r="I53" s="78"/>
       <c r="J53" s="44">
         <f>B49</f>
         <v>5.67</v>
@@ -3186,64 +3334,64 @@
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
       <c r="B55" s="42"/>
-      <c r="C55" s="88" t="s">
+      <c r="C55" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="87">
+      <c r="D55" s="78">
         <v>34</v>
       </c>
-      <c r="E55" s="87" t="s">
-        <v>66</v>
+      <c r="E55" s="78" t="s">
+        <v>65</v>
       </c>
       <c r="F55" s="37">
         <f>E48</f>
         <v>2.2046199999999998</v>
       </c>
-      <c r="G55" s="87" t="s">
-        <v>66</v>
+      <c r="G55" s="78" t="s">
+        <v>65</v>
       </c>
       <c r="H55" s="35">
         <f>E49</f>
         <v>29.573499999999999</v>
       </c>
-      <c r="I55" s="87" t="s">
+      <c r="I55" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="J55" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="J55" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="K55" s="94"/>
+      <c r="K55" s="76"/>
       <c r="L55" s="42"/>
       <c r="M55" s="43"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="90"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
+      <c r="A56" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="71"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
       <c r="F56" s="45">
         <f>B48</f>
         <v>1.23</v>
       </c>
-      <c r="G56" s="87"/>
+      <c r="G56" s="78"/>
       <c r="H56" s="44">
         <f>B49</f>
         <v>5.67</v>
       </c>
-      <c r="I56" s="87"/>
-      <c r="J56" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="K56" s="95"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="K56" s="77"/>
       <c r="L56" s="42"/>
       <c r="M56" s="43"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="91"/>
-      <c r="B57" s="92"/>
+      <c r="A57" s="72"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="42"/>
       <c r="D57" s="42"/>
       <c r="E57" s="42"/>
@@ -3259,42 +3407,42 @@
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
       <c r="B58" s="42"/>
-      <c r="C58" s="88" t="s">
+      <c r="C58" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="87">
+      <c r="D58" s="78">
         <f>D55*E48/B48*E49/B49</f>
         <v>317.85365930801106</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
       <c r="H58" s="42"/>
       <c r="I58" s="42"/>
-      <c r="J58" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="K58" s="97"/>
-      <c r="L58" s="98"/>
+      <c r="J58" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="K58" s="80"/>
+      <c r="L58" s="81"/>
       <c r="M58" s="43"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="41"/>
       <c r="B59" s="42"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="87"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="78"/>
       <c r="E59" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F59" s="42"/>
       <c r="G59" s="42"/>
       <c r="H59" s="42"/>
       <c r="I59" s="42"/>
-      <c r="J59" s="99"/>
-      <c r="K59" s="100"/>
-      <c r="L59" s="101"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="84"/>
       <c r="M59" s="43"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3314,55 +3462,15 @@
     </row>
     <row r="61" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="guMn76Rrfnbktz1qP4vSYHvXqxVpfKLwgGTsjJnjxWhPUKdv5aAzk+N5j/Ow2o0r/1ZDTCiSBTYO5kFf3PC35g==" saltValue="r9J9GgCW84uAaheHC7v1RQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
-    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}">
-      <selection activeCell="L17" sqref="L17"/>
+    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" topLeftCell="A16">
+      <selection activeCell="J27" sqref="J27"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="52">
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A1:H9"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J58:L59"/>
-    <mergeCell ref="G50:H51"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="E43:G44"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A24:H28"/>
-    <mergeCell ref="A29:D30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:E40"/>
@@ -3375,9 +3483,49 @@
     <mergeCell ref="D38:E39"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="E43:G44"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J58:L59"/>
+    <mergeCell ref="G50:H51"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A1:H9"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A24:H28"/>
+    <mergeCell ref="A29:D30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A31:D31" r:id="rId2" display="Unit Conversion the Easy Way (Dimensional Analysis)" xr:uid="{8AAADDF3-68A1-4C47-A9F9-B8A2CB10C5D6}"/>
+    <hyperlink ref="A31:D31" r:id="rId2" display="Video discussing part A" xr:uid="{8AAADDF3-68A1-4C47-A9F9-B8A2CB10C5D6}"/>
     <hyperlink ref="F31:H31" r:id="rId3" display="Video discussing B and C" xr:uid="{EE9C2CD8-33D3-4803-AA1A-E6BAE7F321D4}"/>
     <hyperlink ref="J31:K31" r:id="rId4" display="Video Discussing D" xr:uid="{1E497E25-1C5B-4F7A-8571-2498A4DB8EBB}"/>
   </hyperlinks>
@@ -3477,10 +3625,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="69"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -3828,28 +3976,28 @@
     </row>
     <row r="30" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="70" t="s">
+      <c r="C30" s="100"/>
+      <c r="D30" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="70" t="s">
+      <c r="E30" s="100"/>
+      <c r="F30" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="72"/>
-      <c r="H30" s="60" t="s">
+      <c r="G30" s="101"/>
+      <c r="H30" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="61"/>
-      <c r="J30" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="K30" s="107"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="66"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
     </row>
     <row r="31" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
@@ -3879,42 +4027,42 @@
       <c r="I31" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="J31" s="108">
+      <c r="J31" s="50">
         <v>40</v>
       </c>
-      <c r="K31" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="L31" s="112" t="s">
-        <v>77</v>
-      </c>
-      <c r="M31" s="113"/>
-      <c r="N31" s="114"/>
+      <c r="K31" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" s="54"/>
+      <c r="N31" s="55"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="50" t="s">
+      <c r="C32" s="98"/>
+      <c r="D32" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="50" t="s">
+      <c r="E32" s="87"/>
+      <c r="F32" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="51"/>
+      <c r="G32" s="87"/>
       <c r="H32" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="110" t="s">
+      <c r="J32" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="111"/>
+      <c r="K32" s="68"/>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -3951,7 +4099,7 @@
         <f>D14/A14</f>
         <v>28.349523125000001</v>
       </c>
-      <c r="K33" s="116" t="s">
+      <c r="K33" s="52" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3959,26 +4107,26 @@
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50" t="s">
+      <c r="C34" s="98"/>
+      <c r="D34" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="50" t="s">
+      <c r="E34" s="87"/>
+      <c r="F34" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="51"/>
+      <c r="G34" s="87"/>
       <c r="H34" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I34" s="29"/>
-      <c r="J34" s="110" t="s">
+      <c r="J34" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="111"/>
+      <c r="K34" s="68"/>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -4023,31 +4171,31 @@
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="50" t="s">
+      <c r="B36" s="112"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="51"/>
+      <c r="G36" s="87"/>
       <c r="H36" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I36" s="29"/>
-      <c r="J36" s="110" t="s">
+      <c r="J36" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="111"/>
+      <c r="K36" s="68"/>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="59"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="17">
         <f>D12/A12</f>
         <v>2.2046199999999998</v>
@@ -4067,33 +4215,33 @@
         <v>0.26417205235800001</v>
       </c>
       <c r="K37" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="86" t="s">
+      <c r="C38" s="98"/>
+      <c r="D38" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="86" t="s">
+      <c r="E38" s="87"/>
+      <c r="F38" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="51"/>
+      <c r="G38" s="87"/>
       <c r="H38" s="26" t="s">
         <v>2</v>
       </c>
       <c r="I38" s="29"/>
-      <c r="J38" s="110" t="s">
+      <c r="J38" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="K38" s="111"/>
+      <c r="K38" s="68"/>
     </row>
     <row r="39" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
@@ -4131,7 +4279,7 @@
         <v>982.82833949536575</v>
       </c>
       <c r="K39" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4142,20 +4290,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
@@ -4165,6 +4299,20 @@
     <mergeCell ref="B36:C37"/>
     <mergeCell ref="D36:E37"/>
     <mergeCell ref="F36:G36"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J36:K36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
+++ b/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{61AAFAEA-F7B2-4537-B486-B698E35DA8D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95A66F1-5EB0-4226-86AF-E6F0EDEC16FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="1125" windowWidth="25995" windowHeight="14280" xr2:uid="{AF244846-4AAD-42AC-8F96-96B174BB4566}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="80">
   <si>
     <t>Quantity of</t>
   </si>
@@ -407,9 +407,6 @@
     <t>See "silly" example below.</t>
   </si>
   <si>
-    <t>Video discussing B and C</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -438,9 +435,6 @@
 =oz/gal/ft</t>
   </si>
   <si>
-    <t>Video Discussing D</t>
-  </si>
-  <si>
     <t>A little algebra:
 a/b/c = (a/b)*(1/c) = a/(b*c)
 = (a/c)*(1/b)=a/c/b</t>
@@ -458,7 +452,10 @@
 First, examine this conversion factor table; you will use conversion factors from this table.  Note that if you use a ratio of the Second Units over the First Units, then your multiplier will be the conversion factor itself; on the other hand, if you use a ratio of the First Units over the Second units, then your multiplier will be 1 divided by the conversion factor.  For example, when multiplying by lb/kg, you would multiply by D12/A12; when multiplying by kg/lb, you would multiply by A12/D12.</t>
   </si>
   <si>
-    <t>Video discussing part A</t>
+    <t>Video discussing part A and B</t>
+  </si>
+  <si>
+    <t>Video discussing C and D</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1347,6 +1344,151 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1391,94 +1533,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1487,14 +1544,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1542,66 +1591,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1695,13 +1684,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>866776</xdr:colOff>
+      <xdr:colOff>1009651</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1095376</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -1732,7 +1721,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2876551" y="6543675"/>
+          <a:off x="3019426" y="6543675"/>
           <a:ext cx="228600" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1744,20 +1733,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C784CC2-1730-488E-872C-B9390F23F7E9}"/>
@@ -1782,57 +1772,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8362950" y="6534150"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9F5591-C19B-400D-8F36-6225E3BFD52B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11544300" y="6534150"/>
+          <a:off x="9448800" y="6534150"/>
           <a:ext cx="228600" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2033,8 +1973,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{08C61B69-BC19-4BFD-AC97-14D8AB8B266E}">
-  <header guid="{08C61B69-BC19-4BFD-AC97-14D8AB8B266E}" dateTime="2021-06-10T08:41:52" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5E03DDFB-EA0C-4B58-A64B-3108BB837E1A}">
+  <header guid="{5E03DDFB-EA0C-4B58-A64B-3108BB837E1A}" dateTime="2021-09-08T10:19:39" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2048,7 +1988,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{5E03DDFB-EA0C-4B58-A64B-3108BB837E1A}" name="Richard Ketchersid" id="-1739528616" dateTime="2021-09-08T10:19:39"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2350,8 +2292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE0E753-5E77-4073-B8CA-0383615E5C44}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,96 +2303,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
+      <c r="A1" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="103"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="103"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="103"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="103"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="103"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -2492,10 +2434,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="95" t="s">
+      <c r="G12" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="96"/>
+      <c r="H12" s="111"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2764,73 +2706,73 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="104"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="117"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="105"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="107"/>
+      <c r="A25" s="118"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="120"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="105"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="107"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="120"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="105"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="107"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="120"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="108"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="110"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="123"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="102" t="s">
+      <c r="A29" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="117"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
@@ -2841,62 +2783,60 @@
       <c r="L29" s="34"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="105"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="120"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="65" t="s">
+      <c r="F30" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="123"/>
-      <c r="H30" s="66"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="108"/>
       <c r="I30" s="2"/>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="120" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="122"/>
+      <c r="A31" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="33"/>
-      <c r="F31" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="124" t="s">
-        <v>75</v>
-      </c>
-      <c r="K31" s="125"/>
+      <c r="F31" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="55"/>
     </row>
     <row r="32" spans="1:13" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
-      <c r="B32" s="99" t="s">
+      <c r="B32" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="99" t="s">
+      <c r="C32" s="113"/>
+      <c r="D32" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="100"/>
-      <c r="F32" s="99" t="s">
+      <c r="E32" s="113"/>
+      <c r="F32" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="101"/>
-      <c r="H32" s="74" t="s">
+      <c r="G32" s="114"/>
+      <c r="H32" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="75"/>
-      <c r="J32" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="K32" s="66"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" s="108"/>
       <c r="L32" s="48"/>
       <c r="M32" s="48"/>
     </row>
@@ -2932,38 +2872,38 @@
         <v>40</v>
       </c>
       <c r="K33" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L33" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="L33" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="M33" s="54"/>
-      <c r="N33" s="55"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="97"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="86" t="s">
+      <c r="C34" s="57"/>
+      <c r="D34" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="87"/>
-      <c r="F34" s="86" t="s">
+      <c r="E34" s="59"/>
+      <c r="F34" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="87"/>
-      <c r="H34" s="86" t="s">
+      <c r="G34" s="59"/>
+      <c r="H34" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="87"/>
-      <c r="J34" s="67" t="s">
+      <c r="I34" s="59"/>
+      <c r="J34" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="68"/>
+      <c r="K34" s="82"/>
     </row>
     <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -2988,26 +2928,26 @@
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="98"/>
-      <c r="D36" s="86" t="s">
+      <c r="C36" s="57"/>
+      <c r="D36" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="86" t="s">
+      <c r="E36" s="59"/>
+      <c r="F36" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="86" t="s">
+      <c r="G36" s="59"/>
+      <c r="H36" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="87"/>
-      <c r="J36" s="67" t="s">
+      <c r="I36" s="59"/>
+      <c r="J36" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="68"/>
+      <c r="K36" s="82"/>
     </row>
     <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
@@ -3032,31 +2972,31 @@
       <c r="A38" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="112"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="86" t="s">
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="87"/>
-      <c r="H38" s="86" t="s">
+      <c r="G38" s="59"/>
+      <c r="H38" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="87"/>
-      <c r="J38" s="67" t="s">
+      <c r="I38" s="59"/>
+      <c r="J38" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="68"/>
+      <c r="K38" s="82"/>
     </row>
     <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="114"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="69"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18"/>
       <c r="H39" s="17"/>
@@ -3068,26 +3008,26 @@
       <c r="A40" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="111" t="s">
+      <c r="B40" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="98"/>
-      <c r="D40" s="88" t="s">
+      <c r="C40" s="57"/>
+      <c r="D40" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="87"/>
-      <c r="F40" s="88" t="s">
+      <c r="E40" s="59"/>
+      <c r="F40" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="87"/>
-      <c r="H40" s="88" t="s">
+      <c r="G40" s="59"/>
+      <c r="H40" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I40" s="87"/>
-      <c r="J40" s="67" t="s">
+      <c r="I40" s="59"/>
+      <c r="J40" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="K40" s="68"/>
+      <c r="K40" s="82"/>
     </row>
     <row r="41" spans="1:14" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
@@ -3110,16 +3050,16 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E43" s="89" t="s">
+      <c r="E43" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="90"/>
-      <c r="G43" s="91"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="77"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="92"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="94"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="80"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3219,10 +3159,10 @@
       <c r="D50" s="42"/>
       <c r="E50" s="42"/>
       <c r="F50" s="42"/>
-      <c r="G50" s="79" t="s">
+      <c r="G50" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="H50" s="81"/>
+      <c r="H50" s="90"/>
       <c r="I50" s="42"/>
       <c r="J50" s="42"/>
       <c r="K50" s="42"/>
@@ -3236,8 +3176,8 @@
       <c r="D51" s="42"/>
       <c r="E51" s="42"/>
       <c r="F51" s="42"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="84"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="93"/>
       <c r="I51" s="42"/>
       <c r="J51" s="42"/>
       <c r="K51" s="42"/>
@@ -3245,22 +3185,22 @@
       <c r="M51" s="43"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="85">
+      <c r="A52" s="94">
         <v>34</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="69" t="s">
+      <c r="C52" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="77">
+      <c r="D52" s="74">
         <v>34</v>
       </c>
       <c r="E52" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F52" s="78" t="s">
+      <c r="F52" s="73" t="s">
         <v>65</v>
       </c>
       <c r="G52" s="35">
@@ -3271,7 +3211,7 @@
         <f>F48</f>
         <v>bar</v>
       </c>
-      <c r="I52" s="78" t="s">
+      <c r="I52" s="73" t="s">
         <v>65</v>
       </c>
       <c r="J52" s="35">
@@ -3286,16 +3226,16 @@
       <c r="M52" s="43"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="85"/>
+      <c r="A53" s="94"/>
       <c r="B53" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="78"/>
-      <c r="D53" s="77"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="74"/>
       <c r="E53" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F53" s="78"/>
+      <c r="F53" s="73"/>
       <c r="G53" s="44">
         <f>B48</f>
         <v>1.23</v>
@@ -3304,7 +3244,7 @@
         <f>C48</f>
         <v>baz</v>
       </c>
-      <c r="I53" s="78"/>
+      <c r="I53" s="73"/>
       <c r="J53" s="44">
         <f>B49</f>
         <v>5.67</v>
@@ -3334,64 +3274,64 @@
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
       <c r="B55" s="42"/>
-      <c r="C55" s="69" t="s">
+      <c r="C55" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="78">
+      <c r="D55" s="73">
         <v>34</v>
       </c>
-      <c r="E55" s="78" t="s">
+      <c r="E55" s="73" t="s">
         <v>65</v>
       </c>
       <c r="F55" s="37">
         <f>E48</f>
         <v>2.2046199999999998</v>
       </c>
-      <c r="G55" s="78" t="s">
+      <c r="G55" s="73" t="s">
         <v>65</v>
       </c>
       <c r="H55" s="35">
         <f>E49</f>
         <v>29.573499999999999</v>
       </c>
-      <c r="I55" s="78" t="s">
+      <c r="I55" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="J55" s="76" t="s">
+      <c r="J55" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K55" s="76"/>
+      <c r="K55" s="87"/>
       <c r="L55" s="42"/>
       <c r="M55" s="43"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="70" t="s">
+      <c r="A56" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="71"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
       <c r="F56" s="45">
         <f>B48</f>
         <v>1.23</v>
       </c>
-      <c r="G56" s="78"/>
+      <c r="G56" s="73"/>
       <c r="H56" s="44">
         <f>B49</f>
         <v>5.67</v>
       </c>
-      <c r="I56" s="78"/>
-      <c r="J56" s="77" t="s">
+      <c r="I56" s="73"/>
+      <c r="J56" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="K56" s="77"/>
+      <c r="K56" s="74"/>
       <c r="L56" s="42"/>
       <c r="M56" s="43"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
-      <c r="B57" s="73"/>
+      <c r="A57" s="85"/>
+      <c r="B57" s="86"/>
       <c r="C57" s="42"/>
       <c r="D57" s="42"/>
       <c r="E57" s="42"/>
@@ -3407,10 +3347,10 @@
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
       <c r="B58" s="42"/>
-      <c r="C58" s="69" t="s">
+      <c r="C58" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="78">
+      <c r="D58" s="73">
         <f>D55*E48/B48*E49/B49</f>
         <v>317.85365930801106</v>
       </c>
@@ -3421,18 +3361,18 @@
       <c r="G58" s="42"/>
       <c r="H58" s="42"/>
       <c r="I58" s="42"/>
-      <c r="J58" s="79" t="s">
+      <c r="J58" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="K58" s="80"/>
-      <c r="L58" s="81"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="90"/>
       <c r="M58" s="43"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="41"/>
       <c r="B59" s="42"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="78"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="73"/>
       <c r="E59" s="44" t="s">
         <v>63</v>
       </c>
@@ -3440,9 +3380,9 @@
       <c r="G59" s="42"/>
       <c r="H59" s="42"/>
       <c r="I59" s="42"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="84"/>
+      <c r="J59" s="91"/>
+      <c r="K59" s="92"/>
+      <c r="L59" s="93"/>
       <c r="M59" s="43"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3464,50 +3404,14 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
-    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" topLeftCell="A16">
-      <selection activeCell="J27" sqref="J27"/>
+    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" topLeftCell="A10">
+      <selection activeCell="F31" sqref="F31:K31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="52">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="D38:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="E43:G44"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J58:L59"/>
-    <mergeCell ref="G50:H51"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="I55:I56"/>
+  <mergeCells count="51">
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="J31:K31"/>
     <mergeCell ref="L33:N33"/>
     <mergeCell ref="A1:H9"/>
     <mergeCell ref="J32:K32"/>
@@ -3523,11 +3427,46 @@
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="A24:H28"/>
     <mergeCell ref="A29:D30"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J58:L59"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="E43:G44"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="G50:H51"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="D38:E39"/>
+    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A31:D31" r:id="rId2" display="Video discussing part A" xr:uid="{8AAADDF3-68A1-4C47-A9F9-B8A2CB10C5D6}"/>
     <hyperlink ref="F31:H31" r:id="rId3" display="Video discussing B and C" xr:uid="{EE9C2CD8-33D3-4803-AA1A-E6BAE7F321D4}"/>
-    <hyperlink ref="J31:K31" r:id="rId4" display="Video Discussing D" xr:uid="{1E497E25-1C5B-4F7A-8571-2498A4DB8EBB}"/>
+    <hyperlink ref="F31:K31" r:id="rId4" display="Video discussing B again" xr:uid="{0977636A-1D24-47F5-8F12-1F1689BBF38B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -3625,10 +3564,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="95" t="s">
+      <c r="G12" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="96"/>
+      <c r="H12" s="111"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -3976,26 +3915,26 @@
     </row>
     <row r="30" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="99" t="s">
+      <c r="C30" s="113"/>
+      <c r="D30" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="100"/>
-      <c r="F30" s="99" t="s">
+      <c r="E30" s="113"/>
+      <c r="F30" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="101"/>
-      <c r="H30" s="74" t="s">
+      <c r="G30" s="114"/>
+      <c r="H30" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="75"/>
-      <c r="J30" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="K30" s="66"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" s="108"/>
       <c r="L30" s="48"/>
       <c r="M30" s="48"/>
     </row>
@@ -4031,38 +3970,38 @@
         <v>40</v>
       </c>
       <c r="K31" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="M31" s="54"/>
-      <c r="N31" s="55"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="97"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="98"/>
-      <c r="D32" s="86" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="87"/>
-      <c r="F32" s="86" t="s">
+      <c r="E32" s="59"/>
+      <c r="F32" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="87"/>
+      <c r="G32" s="59"/>
       <c r="H32" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="67" t="s">
+      <c r="J32" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="68"/>
+      <c r="K32" s="82"/>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -4107,26 +4046,26 @@
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="86" t="s">
+      <c r="C34" s="57"/>
+      <c r="D34" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="87"/>
-      <c r="F34" s="86" t="s">
+      <c r="E34" s="59"/>
+      <c r="F34" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="87"/>
+      <c r="G34" s="59"/>
       <c r="H34" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I34" s="29"/>
-      <c r="J34" s="67" t="s">
+      <c r="J34" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="68"/>
+      <c r="K34" s="82"/>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -4171,31 +4110,31 @@
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="112"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="86" t="s">
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="87"/>
+      <c r="G36" s="59"/>
       <c r="H36" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I36" s="29"/>
-      <c r="J36" s="67" t="s">
+      <c r="J36" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="68"/>
+      <c r="K36" s="82"/>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="114"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="17">
         <f>D12/A12</f>
         <v>2.2046199999999998</v>
@@ -4215,33 +4154,33 @@
         <v>0.26417205235800001</v>
       </c>
       <c r="K37" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="111" t="s">
+      <c r="B38" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="98"/>
-      <c r="D38" s="88" t="s">
+      <c r="C38" s="57"/>
+      <c r="D38" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="87"/>
-      <c r="F38" s="88" t="s">
+      <c r="E38" s="59"/>
+      <c r="F38" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="87"/>
+      <c r="G38" s="59"/>
       <c r="H38" s="26" t="s">
         <v>2</v>
       </c>
       <c r="I38" s="29"/>
-      <c r="J38" s="67" t="s">
+      <c r="J38" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="K38" s="68"/>
+      <c r="K38" s="82"/>
     </row>
     <row r="39" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
@@ -4279,7 +4218,7 @@
         <v>982.82833949536575</v>
       </c>
       <c r="K39" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4290,6 +4229,20 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
@@ -4299,20 +4252,6 @@
     <mergeCell ref="B36:C37"/>
     <mergeCell ref="D36:E37"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J36:K36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
+++ b/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95A66F1-5EB0-4226-86AF-E6F0EDEC16FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{BDBC4DFC-A303-4FF5-827A-07E85A60FF4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="1125" windowWidth="25995" windowHeight="14280" xr2:uid="{AF244846-4AAD-42AC-8F96-96B174BB4566}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="82">
   <si>
     <t>Quantity of</t>
   </si>
@@ -457,6 +457,12 @@
   <si>
     <t>Video discussing C and D</t>
   </si>
+  <si>
+    <t>Enter your name in C2 →</t>
+  </si>
+  <si>
+    <t>Your Name Here</t>
+  </si>
 </sst>
 </file>
 
@@ -465,7 +471,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,8 +527,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Bradley Hand ITC"/>
+      <family val="4"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +578,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="49">
     <border>
@@ -1173,7 +1192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1344,6 +1363,185 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1358,76 +1556,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1447,158 +1576,70 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1632,13 +1673,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>845820</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1685,13 +1726,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1009651</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1735,13 +1776,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1973,8 +2014,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5E03DDFB-EA0C-4B58-A64B-3108BB837E1A}">
-  <header guid="{5E03DDFB-EA0C-4B58-A64B-3108BB837E1A}" dateTime="2021-09-08T10:19:39" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5C5BD3A8-4D62-4C95-94F7-358A1F622274}">
+  <header guid="{5C5BD3A8-4D62-4C95-94F7-358A1F622274}" dateTime="2021-09-30T13:21:14" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1989,7 +2030,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{5E03DDFB-EA0C-4B58-A64B-3108BB837E1A}" name="Richard Ketchersid" id="-1739528616" dateTime="2021-09-08T10:19:39"/>
+  <userInfo guid="{5C5BD3A8-4D62-4C95-94F7-358A1F622274}" name="Richard Ketchersid" id="-1739556524" dateTime="2021-09-30T13:21:14"/>
 </users>
 </file>
 
@@ -2290,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE0E753-5E77-4073-B8CA-0383615E5C44}">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,201 +2343,134 @@
     <col min="2" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="126" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="127"/>
+      <c r="C2" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="125"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="100"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="101"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="103"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="103"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="101"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="103"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="103"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="101"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="103"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="104"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="106"/>
-    </row>
-    <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
+    </row>
+    <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2.2046199999999998</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="111"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>29.573499999999999</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6">
-        <v>28.349523125000001</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -2507,160 +2481,170 @@
         <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>1000</v>
+        <v>2.2046199999999998</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="G15" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="72"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>1000</v>
+        <v>29.573499999999999</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>20</v>
+      <c r="G16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="3">
-        <v>1000</v>
+      <c r="D17" s="6">
+        <v>28.349523125000001</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>23</v>
+      <c r="G17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="6">
-        <v>33.814022600000001</v>
+      <c r="D18" s="3">
+        <v>1000</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="6">
-        <v>0.26417205235800001</v>
+      <c r="D19" s="3">
+        <v>1000</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="6">
-        <v>4.9289199999999997</v>
+      <c r="D20" s="3">
+        <v>1000</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="6">
-        <v>3.28084</v>
+        <v>33.814022600000001</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2669,21 +2653,21 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="3">
-        <v>24</v>
+      <c r="D22" s="6">
+        <v>0.26417205235800001</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2692,12 +2676,22 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>4.9289199999999997</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2705,479 +2699,481 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="115" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="117"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>3.28084</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="118"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="120"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>24</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="118"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="120"/>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="118"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="120"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="82"/>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="121"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="123"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="85"/>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="115" t="s">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="86"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="118"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="107" t="s">
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="83"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="109"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
+      <c r="G33" s="70"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="53" t="s">
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="55"/>
-    </row>
-    <row r="32" spans="1:13" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="112" t="s">
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="107"/>
+    </row>
+    <row r="35" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="113"/>
-      <c r="D32" s="112" t="s">
+      <c r="C35" s="78"/>
+      <c r="D35" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="113"/>
-      <c r="F32" s="112" t="s">
+      <c r="E35" s="78"/>
+      <c r="F35" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="114"/>
-      <c r="H32" s="70" t="s">
+      <c r="G35" s="79"/>
+      <c r="H35" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="71"/>
-      <c r="J32" s="107" t="s">
+      <c r="I35" s="104"/>
+      <c r="J35" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="K32" s="108"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-    </row>
-    <row r="33" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="K35" s="67"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+    </row>
+    <row r="36" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B36" s="15">
         <v>10</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D36" s="15">
         <v>2.5</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E36" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F36" s="15">
         <v>5</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G36" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H36" s="27">
         <v>13</v>
       </c>
-      <c r="I33" s="49" t="s">
+      <c r="I36" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="J33" s="50">
+      <c r="J36" s="50">
         <v>40</v>
       </c>
-      <c r="K33" s="51" t="s">
+      <c r="K36" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="L33" s="95" t="s">
+      <c r="L36" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="M33" s="96"/>
-      <c r="N33" s="97"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="M36" s="55"/>
+      <c r="N36" s="56"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B37" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="61" t="s">
+      <c r="C37" s="74"/>
+      <c r="D37" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="61" t="s">
+      <c r="E37" s="76"/>
+      <c r="F37" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="59"/>
-      <c r="H34" s="61" t="s">
+      <c r="G37" s="76"/>
+      <c r="H37" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="59"/>
-      <c r="J34" s="81" t="s">
+      <c r="I37" s="76"/>
+      <c r="J37" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="82"/>
-    </row>
-    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="K37" s="69"/>
+    </row>
+    <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B38" s="15">
         <v>29.573499999999999</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C38" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="52"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="52"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B39" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="61" t="s">
+      <c r="C39" s="74"/>
+      <c r="D39" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="59"/>
-      <c r="F36" s="61" t="s">
+      <c r="E39" s="76"/>
+      <c r="F39" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="59"/>
-      <c r="H36" s="61" t="s">
+      <c r="G39" s="76"/>
+      <c r="H39" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="59"/>
-      <c r="J36" s="81" t="s">
+      <c r="I39" s="76"/>
+      <c r="J39" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="82"/>
-    </row>
-    <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="K39" s="69"/>
+    </row>
+    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B40" s="15">
         <v>0.45359290943563974</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C40" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="30"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="30"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="61" t="s">
+      <c r="B41" s="116"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="59"/>
-      <c r="H38" s="61" t="s">
+      <c r="G41" s="76"/>
+      <c r="H41" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="59"/>
-      <c r="J38" s="81" t="s">
+      <c r="I41" s="76"/>
+      <c r="J41" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="82"/>
-    </row>
-    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="K41" s="69"/>
+    </row>
+    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="30"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="B42" s="118"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="30"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B43" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="58" t="s">
+      <c r="C43" s="74"/>
+      <c r="D43" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="59"/>
-      <c r="F40" s="58" t="s">
+      <c r="E43" s="76"/>
+      <c r="F43" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="59"/>
-      <c r="H40" s="58" t="s">
+      <c r="G43" s="76"/>
+      <c r="H43" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="I40" s="59"/>
-      <c r="J40" s="81" t="s">
+      <c r="I43" s="76"/>
+      <c r="J43" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="K40" s="82"/>
-    </row>
-    <row r="41" spans="1:14" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+      <c r="K43" s="69"/>
+    </row>
+    <row r="44" spans="1:14" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B44" s="21">
         <v>134.14329907194892</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C44" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="31"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E43" s="75" t="s">
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="31"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E46" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="78"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="80"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="40"/>
-    </row>
-    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="1" t="s">
+      <c r="F46" s="110"/>
+      <c r="G46" s="111"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="112"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="114"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="38"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="40"/>
+    </row>
+    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="43"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2.2046199999999998</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="43"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="3">
-        <v>5.67</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="3">
-        <v>29.573499999999999</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="43"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="H50" s="90"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
       <c r="I50" s="42"/>
       <c r="J50" s="42"/>
       <c r="K50" s="42"/>
       <c r="L50" s="42"/>
       <c r="M50" s="43"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="93"/>
+      <c r="B51" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2.2046199999999998</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
       <c r="I51" s="42"/>
       <c r="J51" s="42"/>
       <c r="K51" s="42"/>
@@ -3185,86 +3181,56 @@
       <c r="M51" s="43"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="94">
-        <v>34</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="72" t="s">
+      <c r="A52" s="41"/>
+      <c r="B52" s="3">
+        <v>5.67</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="74">
-        <v>34</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" s="35">
-        <f>E48</f>
-        <v>2.2046199999999998</v>
-      </c>
-      <c r="H52" s="35" t="str">
-        <f>F48</f>
-        <v>bar</v>
-      </c>
-      <c r="I52" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="J52" s="35">
-        <f>E49</f>
+      <c r="E52" s="3">
         <v>29.573499999999999</v>
       </c>
-      <c r="K52" s="35" t="str">
-        <f>F49</f>
-        <v>zap</v>
-      </c>
+      <c r="F52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
       <c r="L52" s="42"/>
       <c r="M52" s="43"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="94"/>
-      <c r="B53" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="73"/>
-      <c r="G53" s="44">
-        <f>B48</f>
-        <v>1.23</v>
-      </c>
-      <c r="H53" s="44" t="str">
-        <f>C48</f>
-        <v>baz</v>
-      </c>
-      <c r="I53" s="73"/>
-      <c r="J53" s="44">
-        <f>B49</f>
-        <v>5.67</v>
-      </c>
-      <c r="K53" s="44" t="str">
-        <f>C49</f>
-        <v>foo</v>
-      </c>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" s="99"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
       <c r="L53" s="42"/>
       <c r="M53" s="43"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="41"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
       <c r="E54" s="42"/>
       <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="102"/>
       <c r="I54" s="42"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
@@ -3272,66 +3238,80 @@
       <c r="M54" s="43"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="72" t="s">
+      <c r="A55" s="53">
+        <v>34</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="73">
+      <c r="D55" s="95">
         <v>34</v>
       </c>
-      <c r="E55" s="73" t="s">
+      <c r="E55" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="F55" s="37">
-        <f>E48</f>
+      <c r="G55" s="35">
+        <f>E51</f>
         <v>2.2046199999999998</v>
       </c>
-      <c r="G55" s="73" t="s">
+      <c r="H55" s="35" t="str">
+        <f>F51</f>
+        <v>bar</v>
+      </c>
+      <c r="I55" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="H55" s="35">
-        <f>E49</f>
+      <c r="J55" s="35">
+        <f>E52</f>
         <v>29.573499999999999</v>
       </c>
-      <c r="I55" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="J55" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="K55" s="87"/>
+      <c r="K55" s="35" t="str">
+        <f>F52</f>
+        <v>zap</v>
+      </c>
       <c r="L55" s="42"/>
       <c r="M55" s="43"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="84"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="45">
-        <f>B48</f>
+      <c r="A56" s="53"/>
+      <c r="B56" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="96"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="96"/>
+      <c r="G56" s="44">
+        <f>B51</f>
         <v>1.23</v>
       </c>
-      <c r="G56" s="73"/>
-      <c r="H56" s="44">
-        <f>B49</f>
+      <c r="H56" s="44" t="str">
+        <f>C51</f>
+        <v>baz</v>
+      </c>
+      <c r="I56" s="96"/>
+      <c r="J56" s="44">
+        <f>B52</f>
         <v>5.67</v>
       </c>
-      <c r="I56" s="73"/>
-      <c r="J56" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K56" s="74"/>
+      <c r="K56" s="44" t="str">
+        <f>C52</f>
+        <v>foo</v>
+      </c>
       <c r="L56" s="42"/>
       <c r="M56" s="43"/>
     </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="85"/>
-      <c r="B57" s="86"/>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="41"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="42"/>
       <c r="D57" s="42"/>
       <c r="E57" s="42"/>
@@ -3347,126 +3327,206 @@
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
       <c r="B58" s="42"/>
-      <c r="C58" s="72" t="s">
+      <c r="C58" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="73">
-        <f>D55*E48/B48*E49/B49</f>
+      <c r="D58" s="96">
+        <v>34</v>
+      </c>
+      <c r="E58" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="37">
+        <f>E51</f>
+        <v>2.2046199999999998</v>
+      </c>
+      <c r="G58" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" s="35">
+        <f>E52</f>
+        <v>29.573499999999999</v>
+      </c>
+      <c r="I58" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="J58" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58" s="94"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="43"/>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="91"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="45">
+        <f>B51</f>
+        <v>1.23</v>
+      </c>
+      <c r="G59" s="96"/>
+      <c r="H59" s="44">
+        <f>B52</f>
+        <v>5.67</v>
+      </c>
+      <c r="I59" s="96"/>
+      <c r="J59" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59" s="95"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="43"/>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="92"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="43"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="96">
+        <f>D58*E51/B51*E52/B52</f>
         <v>317.85365930801106</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E61" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="88" t="s">
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="K58" s="89"/>
-      <c r="L58" s="90"/>
-      <c r="M58" s="43"/>
-    </row>
-    <row r="59" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="44" t="s">
+      <c r="K61" s="98"/>
+      <c r="L61" s="99"/>
+      <c r="M61" s="43"/>
+    </row>
+    <row r="62" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="91"/>
-      <c r="K59" s="92"/>
-      <c r="L59" s="93"/>
-      <c r="M59" s="43"/>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="46"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="47"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="101"/>
+      <c r="L62" s="102"/>
+      <c r="M62" s="43"/>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="46"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="47"/>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="m6dV6Pagh1EIAZp6eIOlJpxXpN9k/ZsAfvxWGAXZp6E8Ef+FFVCGF1bxKnVyvY6xJG4gnqS5p06ZliQyKT2ouw==" saltValue="mL9lUQSxM6PtTTPoBE/axA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
-    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" topLeftCell="A10">
-      <selection activeCell="F31" sqref="F31:K31"/>
+    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}">
+      <selection activeCell="C38" sqref="C38"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="51">
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A1:H9"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A24:H28"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J58:L59"/>
+  <mergeCells count="53">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="F34:K34"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F55:F56"/>
     <mergeCell ref="I55:I56"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="E43:G44"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="G50:H51"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="D38:E39"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="E46:G47"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="G53:H54"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="J61:L62"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A4:H12"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A27:H31"/>
+    <mergeCell ref="A32:D33"/>
   </mergeCells>
+  <conditionalFormatting sqref="A4:N68">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C$2="Your Name Here"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A31:D31" r:id="rId2" display="Video discussing part A" xr:uid="{8AAADDF3-68A1-4C47-A9F9-B8A2CB10C5D6}"/>
-    <hyperlink ref="F31:H31" r:id="rId3" display="Video discussing B and C" xr:uid="{EE9C2CD8-33D3-4803-AA1A-E6BAE7F321D4}"/>
-    <hyperlink ref="F31:K31" r:id="rId4" display="Video discussing B again" xr:uid="{0977636A-1D24-47F5-8F12-1F1689BBF38B}"/>
+    <hyperlink ref="A34:D34" r:id="rId2" display="Video discussing part A" xr:uid="{8AAADDF3-68A1-4C47-A9F9-B8A2CB10C5D6}"/>
+    <hyperlink ref="F34:H34" r:id="rId3" display="Video discussing B and C" xr:uid="{EE9C2CD8-33D3-4803-AA1A-E6BAE7F321D4}"/>
+    <hyperlink ref="F34:K34" r:id="rId4" display="Video discussing B again" xr:uid="{0977636A-1D24-47F5-8F12-1F1689BBF38B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -3475,8 +3535,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{320296C2-C020-41D7-AADE-55FB6C8E6AB3}">
-            <xm:f>NOT(ABS(D41-Solutions!D39)&lt;0.001)</xm:f>
+          <x14:cfRule type="expression" priority="8" id="{320296C2-C020-41D7-AADE-55FB6C8E6AB3}">
+            <xm:f>NOT(ABS(D44-Solutions!D39)&lt;0.001)</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -3485,8 +3545,8 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="8" id="{1096F20E-5F85-4D62-86B5-ABD7B9B6790F}">
-            <xm:f>ABS(D41-Solutions!D39)&lt;0.001</xm:f>
+          <x14:cfRule type="expression" priority="9" id="{1096F20E-5F85-4D62-86B5-ABD7B9B6790F}">
+            <xm:f>ABS(D44-Solutions!D39)&lt;0.001</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -3495,7 +3555,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D41:K41</xm:sqref>
+          <xm:sqref>D44:K44</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3564,10 +3624,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="110" t="s">
+      <c r="G12" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="111"/>
+      <c r="H12" s="72"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -3915,26 +3975,26 @@
     </row>
     <row r="30" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="112" t="s">
+      <c r="C30" s="78"/>
+      <c r="D30" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="113"/>
-      <c r="F30" s="112" t="s">
+      <c r="E30" s="78"/>
+      <c r="F30" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="114"/>
-      <c r="H30" s="70" t="s">
+      <c r="G30" s="79"/>
+      <c r="H30" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="71"/>
-      <c r="J30" s="107" t="s">
+      <c r="I30" s="104"/>
+      <c r="J30" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="K30" s="108"/>
+      <c r="K30" s="67"/>
       <c r="L30" s="48"/>
       <c r="M30" s="48"/>
     </row>
@@ -3972,36 +4032,36 @@
       <c r="K31" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="L31" s="95" t="s">
+      <c r="L31" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="M31" s="96"/>
-      <c r="N31" s="97"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="56"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="61" t="s">
+      <c r="C32" s="74"/>
+      <c r="D32" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="61" t="s">
+      <c r="E32" s="76"/>
+      <c r="F32" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="59"/>
+      <c r="G32" s="76"/>
       <c r="H32" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="81" t="s">
+      <c r="J32" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="82"/>
+      <c r="K32" s="69"/>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -4046,26 +4106,26 @@
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="61" t="s">
+      <c r="C34" s="74"/>
+      <c r="D34" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="61" t="s">
+      <c r="E34" s="76"/>
+      <c r="F34" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="59"/>
+      <c r="G34" s="76"/>
       <c r="H34" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I34" s="29"/>
-      <c r="J34" s="81" t="s">
+      <c r="J34" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="82"/>
+      <c r="K34" s="69"/>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -4110,31 +4170,31 @@
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="61" t="s">
+      <c r="B36" s="116"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="59"/>
+      <c r="G36" s="76"/>
       <c r="H36" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I36" s="29"/>
-      <c r="J36" s="81" t="s">
+      <c r="J36" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="82"/>
+      <c r="K36" s="69"/>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="69"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="123"/>
       <c r="F37" s="17">
         <f>D12/A12</f>
         <v>2.2046199999999998</v>
@@ -4161,26 +4221,26 @@
       <c r="A38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58" t="s">
+      <c r="C38" s="74"/>
+      <c r="D38" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="58" t="s">
+      <c r="E38" s="76"/>
+      <c r="F38" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="59"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="26" t="s">
         <v>2</v>
       </c>
       <c r="I38" s="29"/>
-      <c r="J38" s="81" t="s">
+      <c r="J38" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="K38" s="82"/>
+      <c r="K38" s="69"/>
     </row>
     <row r="39" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
@@ -4229,20 +4289,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
@@ -4252,6 +4298,20 @@
     <mergeCell ref="B36:C37"/>
     <mergeCell ref="D36:E37"/>
     <mergeCell ref="F36:G36"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J36:K36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
+++ b/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{BDBC4DFC-A303-4FF5-827A-07E85A60FF4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{7CBD9C24-F3B4-4033-B79A-2D9457AC7016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="1125" windowWidth="25995" windowHeight="14280" xr2:uid="{AF244846-4AAD-42AC-8F96-96B174BB4566}"/>
   </bookViews>
@@ -1363,6 +1363,154 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1410,12 +1558,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1425,22 +1567,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1492,137 +1618,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1630,16 +1632,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1653,6 +1645,16 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2014,8 +2016,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5C5BD3A8-4D62-4C95-94F7-358A1F622274}">
-  <header guid="{5C5BD3A8-4D62-4C95-94F7-358A1F622274}" dateTime="2021-09-30T13:21:14" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F6743FB5-C608-414F-84BA-42B51547B24B}">
+  <header guid="{F6743FB5-C608-414F-84BA-42B51547B24B}" dateTime="2021-10-14T10:01:10" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2030,7 +2032,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{5C5BD3A8-4D62-4C95-94F7-358A1F622274}" name="Richard Ketchersid" id="-1739556524" dateTime="2021-09-30T13:21:14"/>
+  <userInfo guid="{F6743FB5-C608-414F-84BA-42B51547B24B}" name="Richard Ketchersid" id="-1739584685" dateTime="2021-10-14T10:01:10"/>
 </users>
 </file>
 
@@ -2334,7 +2336,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,107 +2347,107 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="124" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="125"/>
+      <c r="D2" s="127"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="102"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="105"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="105"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="105"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="105"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="105"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="105"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="105"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="108"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -2487,10 +2489,10 @@
         <v>6</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="72"/>
+      <c r="H15" s="113"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2759,73 +2761,73 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="82"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="119"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="85"/>
+      <c r="A28" s="120"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="122"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="85"/>
+      <c r="A29" s="120"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="122"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="122"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="86"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="88"/>
+      <c r="A31" s="123"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
@@ -2836,60 +2838,60 @@
       <c r="L32" s="34"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="83"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
+      <c r="A33" s="120"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="70"/>
-      <c r="H33" s="67"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="2"/>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="105" t="s">
+      <c r="A34" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="107"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="33"/>
-      <c r="F34" s="105" t="s">
+      <c r="F34" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="107"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="72"/>
     </row>
     <row r="35" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="78"/>
-      <c r="D35" s="77" t="s">
+      <c r="C35" s="115"/>
+      <c r="D35" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="78"/>
-      <c r="F35" s="77" t="s">
+      <c r="E35" s="115"/>
+      <c r="F35" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="79"/>
-      <c r="H35" s="103" t="s">
+      <c r="G35" s="116"/>
+      <c r="H35" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="I35" s="104"/>
-      <c r="J35" s="66" t="s">
+      <c r="I35" s="69"/>
+      <c r="J35" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="K35" s="67"/>
+      <c r="K35" s="110"/>
       <c r="L35" s="48"/>
       <c r="M35" s="48"/>
     </row>
@@ -2927,36 +2929,36 @@
       <c r="K36" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="L36" s="54" t="s">
+      <c r="L36" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="M36" s="55"/>
-      <c r="N36" s="56"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="99"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75" t="s">
+      <c r="C37" s="58"/>
+      <c r="D37" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="76"/>
-      <c r="F37" s="75" t="s">
+      <c r="E37" s="56"/>
+      <c r="F37" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="76"/>
-      <c r="H37" s="75" t="s">
+      <c r="G37" s="56"/>
+      <c r="H37" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="I37" s="76"/>
-      <c r="J37" s="68" t="s">
+      <c r="I37" s="56"/>
+      <c r="J37" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="69"/>
+      <c r="K37" s="83"/>
     </row>
     <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
@@ -2981,26 +2983,26 @@
       <c r="A39" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75" t="s">
+      <c r="C39" s="58"/>
+      <c r="D39" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="76"/>
-      <c r="F39" s="75" t="s">
+      <c r="E39" s="56"/>
+      <c r="F39" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="76"/>
-      <c r="H39" s="75" t="s">
+      <c r="G39" s="56"/>
+      <c r="H39" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="I39" s="76"/>
-      <c r="J39" s="68" t="s">
+      <c r="I39" s="56"/>
+      <c r="J39" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="K39" s="69"/>
+      <c r="K39" s="83"/>
     </row>
     <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
@@ -3025,31 +3027,31 @@
       <c r="A41" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="116"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="75" t="s">
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G41" s="76"/>
-      <c r="H41" s="75" t="s">
+      <c r="G41" s="56"/>
+      <c r="H41" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="76"/>
-      <c r="J41" s="68" t="s">
+      <c r="I41" s="56"/>
+      <c r="J41" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="K41" s="69"/>
+      <c r="K41" s="83"/>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="118"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="123"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
       <c r="H42" s="17"/>
@@ -3061,26 +3063,26 @@
       <c r="A43" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="108" t="s">
+      <c r="C43" s="58"/>
+      <c r="D43" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="76"/>
-      <c r="F43" s="108" t="s">
+      <c r="E43" s="56"/>
+      <c r="F43" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="76"/>
-      <c r="H43" s="108" t="s">
+      <c r="G43" s="56"/>
+      <c r="H43" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="76"/>
-      <c r="J43" s="68" t="s">
+      <c r="I43" s="56"/>
+      <c r="J43" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="K43" s="69"/>
+      <c r="K43" s="83"/>
     </row>
     <row r="44" spans="1:14" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
@@ -3103,16 +3105,16 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E46" s="109" t="s">
+      <c r="E46" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="110"/>
-      <c r="G46" s="111"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="78"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="112"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="114"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="81"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3212,10 +3214,10 @@
       <c r="D53" s="42"/>
       <c r="E53" s="42"/>
       <c r="F53" s="42"/>
-      <c r="G53" s="97" t="s">
+      <c r="G53" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="H53" s="99"/>
+      <c r="H53" s="85"/>
       <c r="I53" s="42"/>
       <c r="J53" s="42"/>
       <c r="K53" s="42"/>
@@ -3229,8 +3231,8 @@
       <c r="D54" s="42"/>
       <c r="E54" s="42"/>
       <c r="F54" s="42"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="102"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="87"/>
       <c r="I54" s="42"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
@@ -3238,22 +3240,22 @@
       <c r="M54" s="43"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="53">
+      <c r="A55" s="96">
         <v>34</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="89" t="s">
+      <c r="C55" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="95">
+      <c r="D55" s="75">
         <v>34</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="96" t="s">
+      <c r="F55" s="74" t="s">
         <v>65</v>
       </c>
       <c r="G55" s="35">
@@ -3264,7 +3266,7 @@
         <f>F51</f>
         <v>bar</v>
       </c>
-      <c r="I55" s="96" t="s">
+      <c r="I55" s="74" t="s">
         <v>65</v>
       </c>
       <c r="J55" s="35">
@@ -3279,16 +3281,16 @@
       <c r="M55" s="43"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
+      <c r="A56" s="96"/>
       <c r="B56" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="95"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="75"/>
       <c r="E56" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="96"/>
+      <c r="F56" s="74"/>
       <c r="G56" s="44">
         <f>B51</f>
         <v>1.23</v>
@@ -3297,7 +3299,7 @@
         <f>C51</f>
         <v>baz</v>
       </c>
-      <c r="I56" s="96"/>
+      <c r="I56" s="74"/>
       <c r="J56" s="44">
         <f>B52</f>
         <v>5.67</v>
@@ -3327,64 +3329,64 @@
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
       <c r="B58" s="42"/>
-      <c r="C58" s="89" t="s">
+      <c r="C58" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="96">
+      <c r="D58" s="74">
         <v>34</v>
       </c>
-      <c r="E58" s="96" t="s">
+      <c r="E58" s="74" t="s">
         <v>65</v>
       </c>
       <c r="F58" s="37">
         <f>E51</f>
         <v>2.2046199999999998</v>
       </c>
-      <c r="G58" s="96" t="s">
+      <c r="G58" s="74" t="s">
         <v>65</v>
       </c>
       <c r="H58" s="35">
         <f>E52</f>
         <v>29.573499999999999</v>
       </c>
-      <c r="I58" s="96" t="s">
+      <c r="I58" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="J58" s="94" t="s">
+      <c r="J58" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="K58" s="94"/>
+      <c r="K58" s="93"/>
       <c r="L58" s="42"/>
       <c r="M58" s="43"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="90" t="s">
+      <c r="A59" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="91"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="96"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
       <c r="F59" s="45">
         <f>B51</f>
         <v>1.23</v>
       </c>
-      <c r="G59" s="96"/>
+      <c r="G59" s="74"/>
       <c r="H59" s="44">
         <f>B52</f>
         <v>5.67</v>
       </c>
-      <c r="I59" s="96"/>
-      <c r="J59" s="95" t="s">
+      <c r="I59" s="74"/>
+      <c r="J59" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="K59" s="95"/>
+      <c r="K59" s="75"/>
       <c r="L59" s="42"/>
       <c r="M59" s="43"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="92"/>
-      <c r="B60" s="93"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="92"/>
       <c r="C60" s="42"/>
       <c r="D60" s="42"/>
       <c r="E60" s="42"/>
@@ -3400,10 +3402,10 @@
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="41"/>
       <c r="B61" s="42"/>
-      <c r="C61" s="89" t="s">
+      <c r="C61" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="96">
+      <c r="D61" s="74">
         <f>D58*E51/B51*E52/B52</f>
         <v>317.85365930801106</v>
       </c>
@@ -3414,18 +3416,18 @@
       <c r="G61" s="42"/>
       <c r="H61" s="42"/>
       <c r="I61" s="42"/>
-      <c r="J61" s="97" t="s">
+      <c r="J61" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="K61" s="98"/>
-      <c r="L61" s="99"/>
+      <c r="K61" s="94"/>
+      <c r="L61" s="85"/>
       <c r="M61" s="43"/>
     </row>
     <row r="62" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="42"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="96"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="74"/>
       <c r="E62" s="44" t="s">
         <v>63</v>
       </c>
@@ -3433,9 +3435,9 @@
       <c r="G62" s="42"/>
       <c r="H62" s="42"/>
       <c r="I62" s="42"/>
-      <c r="J62" s="100"/>
-      <c r="K62" s="101"/>
-      <c r="L62" s="102"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="95"/>
+      <c r="L62" s="87"/>
       <c r="M62" s="43"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3455,25 +3457,42 @@
     </row>
     <row r="64" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="m6dV6Pagh1EIAZp6eIOlJpxXpN9k/ZsAfvxWGAXZp6E8Ef+FFVCGF1bxKnVyvY6xJG4gnqS5p06ZliQyKT2ouw==" saltValue="mL9lUQSxM6PtTTPoBE/axA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yt0L1khnJIHTTxZ3qm9rDnHwditKfkR0F0CTyAboNG93Auvb9d/Nn5lJT/tZ/L1vh88WGQk37OxYVHvTFk3j/g==" saltValue="2hFy9qldaJDM3tGtYcbpMg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="53">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A4:H12"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A27:H31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="J61:L62"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="I58:I59"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="F34:K34"/>
     <mergeCell ref="C55:C56"/>
@@ -3490,36 +3509,19 @@
     <mergeCell ref="G53:H54"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A59:B60"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="J61:L62"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A4:H12"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A27:H31"/>
-    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:N68">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$C$2="Your Name Here"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3624,10 +3626,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="72"/>
+      <c r="H12" s="113"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -3975,26 +3977,26 @@
     </row>
     <row r="30" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="77" t="s">
+      <c r="C30" s="115"/>
+      <c r="D30" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="78"/>
-      <c r="F30" s="77" t="s">
+      <c r="E30" s="115"/>
+      <c r="F30" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="79"/>
-      <c r="H30" s="103" t="s">
+      <c r="G30" s="116"/>
+      <c r="H30" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="104"/>
-      <c r="J30" s="66" t="s">
+      <c r="I30" s="69"/>
+      <c r="J30" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="K30" s="67"/>
+      <c r="K30" s="110"/>
       <c r="L30" s="48"/>
       <c r="M30" s="48"/>
     </row>
@@ -4032,36 +4034,36 @@
       <c r="K31" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="L31" s="54" t="s">
+      <c r="L31" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="M31" s="55"/>
-      <c r="N31" s="56"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="99"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75" t="s">
+      <c r="C32" s="58"/>
+      <c r="D32" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="75" t="s">
+      <c r="E32" s="56"/>
+      <c r="F32" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="76"/>
+      <c r="G32" s="56"/>
       <c r="H32" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="68" t="s">
+      <c r="J32" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="69"/>
+      <c r="K32" s="83"/>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -4106,26 +4108,26 @@
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="75" t="s">
+      <c r="C34" s="58"/>
+      <c r="D34" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="F34" s="75" t="s">
+      <c r="E34" s="56"/>
+      <c r="F34" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="76"/>
+      <c r="G34" s="56"/>
       <c r="H34" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I34" s="29"/>
-      <c r="J34" s="68" t="s">
+      <c r="J34" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="69"/>
+      <c r="K34" s="83"/>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -4170,31 +4172,31 @@
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="116"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="75" t="s">
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="76"/>
+      <c r="G36" s="56"/>
       <c r="H36" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I36" s="29"/>
-      <c r="J36" s="68" t="s">
+      <c r="J36" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="69"/>
+      <c r="K36" s="83"/>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="118"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="123"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
       <c r="F37" s="17">
         <f>D12/A12</f>
         <v>2.2046199999999998</v>
@@ -4221,26 +4223,26 @@
       <c r="A38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="108" t="s">
+      <c r="C38" s="58"/>
+      <c r="D38" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="76"/>
-      <c r="F38" s="108" t="s">
+      <c r="E38" s="56"/>
+      <c r="F38" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="76"/>
+      <c r="G38" s="56"/>
       <c r="H38" s="26" t="s">
         <v>2</v>
       </c>
       <c r="I38" s="29"/>
-      <c r="J38" s="68" t="s">
+      <c r="J38" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="K38" s="69"/>
+      <c r="K38" s="83"/>
     </row>
     <row r="39" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
@@ -4289,6 +4291,20 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
@@ -4298,20 +4314,6 @@
     <mergeCell ref="B36:C37"/>
     <mergeCell ref="D36:E37"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J36:K36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
+++ b/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{7CBD9C24-F3B4-4033-B79A-2D9457AC7016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{EDA37B3D-495B-4814-8333-DB2B07B0632B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="1125" windowWidth="25995" windowHeight="14280" xr2:uid="{AF244846-4AAD-42AC-8F96-96B174BB4566}"/>
   </bookViews>
   <sheets>
     <sheet name="Conversions" sheetId="1" r:id="rId1"/>
-    <sheet name="Solutions" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Solutions" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="83">
   <si>
     <t>Quantity of</t>
   </si>
@@ -463,6 +464,9 @@
   <si>
     <t>Your Name Here</t>
   </si>
+  <si>
+    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
+  </si>
 </sst>
 </file>
 
@@ -471,7 +475,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +538,14 @@
       <name val="Bradley Hand ITC"/>
       <family val="4"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1192,7 +1204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1363,261 +1375,229 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1625,6 +1605,44 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2016,11 +2034,12 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F6743FB5-C608-414F-84BA-42B51547B24B}">
-  <header guid="{F6743FB5-C608-414F-84BA-42B51547B24B}" dateTime="2021-10-14T10:01:10" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AC4E2461-5F5E-4790-BBB2-43805CAF789F}">
+  <header guid="{AC4E2461-5F5E-4790-BBB2-43805CAF789F}" dateTime="2022-07-20T13:47:47" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
+      <sheetId val="3"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -2032,7 +2051,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{F6743FB5-C608-414F-84BA-42B51547B24B}" name="Richard Ketchersid" id="-1739584685" dateTime="2021-10-14T10:01:10"/>
+  <userInfo guid="{AC4E2461-5F5E-4790-BBB2-43805CAF789F}" name="Richard Ketchersid" id="-1739560160" dateTime="2022-07-20T13:47:47"/>
 </users>
 </file>
 
@@ -2347,107 +2366,107 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="126" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="127"/>
+      <c r="D2" s="119"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="105"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="105"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="105"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="105"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="105"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="105"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="105"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="106"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="108"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -2489,10 +2508,10 @@
         <v>6</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="113"/>
+      <c r="H15" s="72"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2761,73 +2780,73 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="119"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="82"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="120"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="122"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="85"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="120"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="122"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="85"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="120"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="122"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="85"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="123"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="125"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="88"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
@@ -2838,60 +2857,60 @@
       <c r="L32" s="34"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="120"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="122"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="109" t="s">
+      <c r="F33" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="111"/>
-      <c r="H33" s="110"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="67"/>
       <c r="I33" s="2"/>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="72"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="107"/>
       <c r="E34" s="33"/>
-      <c r="F34" s="70" t="s">
+      <c r="F34" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="72"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="107"/>
     </row>
     <row r="35" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="114" t="s">
+      <c r="C35" s="78"/>
+      <c r="D35" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="115"/>
-      <c r="F35" s="114" t="s">
+      <c r="E35" s="78"/>
+      <c r="F35" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="116"/>
-      <c r="H35" s="68" t="s">
+      <c r="G35" s="79"/>
+      <c r="H35" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="I35" s="69"/>
-      <c r="J35" s="109" t="s">
+      <c r="I35" s="104"/>
+      <c r="J35" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="K35" s="110"/>
+      <c r="K35" s="67"/>
       <c r="L35" s="48"/>
       <c r="M35" s="48"/>
     </row>
@@ -2929,36 +2948,36 @@
       <c r="K36" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="L36" s="97" t="s">
+      <c r="L36" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="M36" s="98"/>
-      <c r="N36" s="99"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="56"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="59" t="s">
+      <c r="C37" s="74"/>
+      <c r="D37" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="56"/>
-      <c r="F37" s="59" t="s">
+      <c r="E37" s="76"/>
+      <c r="F37" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="56"/>
-      <c r="H37" s="59" t="s">
+      <c r="G37" s="76"/>
+      <c r="H37" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="I37" s="56"/>
-      <c r="J37" s="82" t="s">
+      <c r="I37" s="76"/>
+      <c r="J37" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="83"/>
+      <c r="K37" s="69"/>
     </row>
     <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
@@ -2983,26 +3002,26 @@
       <c r="A39" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="59" t="s">
+      <c r="C39" s="74"/>
+      <c r="D39" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="59" t="s">
+      <c r="E39" s="76"/>
+      <c r="F39" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="56"/>
-      <c r="H39" s="59" t="s">
+      <c r="G39" s="76"/>
+      <c r="H39" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="I39" s="56"/>
-      <c r="J39" s="82" t="s">
+      <c r="I39" s="76"/>
+      <c r="J39" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K39" s="83"/>
+      <c r="K39" s="69"/>
     </row>
     <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
@@ -3027,31 +3046,31 @@
       <c r="A41" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="59" t="s">
+      <c r="B41" s="120"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G41" s="56"/>
-      <c r="H41" s="59" t="s">
+      <c r="G41" s="76"/>
+      <c r="H41" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="56"/>
-      <c r="J41" s="82" t="s">
+      <c r="I41" s="76"/>
+      <c r="J41" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K41" s="83"/>
+      <c r="K41" s="69"/>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="67"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="127"/>
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
       <c r="H42" s="17"/>
@@ -3063,26 +3082,26 @@
       <c r="A43" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="88" t="s">
+      <c r="B43" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="55" t="s">
+      <c r="C43" s="74"/>
+      <c r="D43" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="55" t="s">
+      <c r="E43" s="76"/>
+      <c r="F43" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="56"/>
-      <c r="H43" s="55" t="s">
+      <c r="G43" s="76"/>
+      <c r="H43" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="56"/>
-      <c r="J43" s="82" t="s">
+      <c r="I43" s="76"/>
+      <c r="J43" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="K43" s="83"/>
+      <c r="K43" s="69"/>
     </row>
     <row r="44" spans="1:14" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
@@ -3105,16 +3124,16 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E46" s="76" t="s">
+      <c r="E46" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="77"/>
-      <c r="G46" s="78"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="111"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="79"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="81"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="114"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3214,10 +3233,10 @@
       <c r="D53" s="42"/>
       <c r="E53" s="42"/>
       <c r="F53" s="42"/>
-      <c r="G53" s="84" t="s">
+      <c r="G53" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="H53" s="85"/>
+      <c r="H53" s="99"/>
       <c r="I53" s="42"/>
       <c r="J53" s="42"/>
       <c r="K53" s="42"/>
@@ -3231,8 +3250,8 @@
       <c r="D54" s="42"/>
       <c r="E54" s="42"/>
       <c r="F54" s="42"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="87"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="102"/>
       <c r="I54" s="42"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
@@ -3240,22 +3259,22 @@
       <c r="M54" s="43"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="96">
+      <c r="A55" s="53">
         <v>34</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="73" t="s">
+      <c r="C55" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="75">
+      <c r="D55" s="95">
         <v>34</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="74" t="s">
+      <c r="F55" s="96" t="s">
         <v>65</v>
       </c>
       <c r="G55" s="35">
@@ -3266,7 +3285,7 @@
         <f>F51</f>
         <v>bar</v>
       </c>
-      <c r="I55" s="74" t="s">
+      <c r="I55" s="96" t="s">
         <v>65</v>
       </c>
       <c r="J55" s="35">
@@ -3281,16 +3300,16 @@
       <c r="M55" s="43"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="96"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="74"/>
-      <c r="D56" s="75"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="95"/>
       <c r="E56" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="74"/>
+      <c r="F56" s="96"/>
       <c r="G56" s="44">
         <f>B51</f>
         <v>1.23</v>
@@ -3299,7 +3318,7 @@
         <f>C51</f>
         <v>baz</v>
       </c>
-      <c r="I56" s="74"/>
+      <c r="I56" s="96"/>
       <c r="J56" s="44">
         <f>B52</f>
         <v>5.67</v>
@@ -3329,64 +3348,64 @@
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
       <c r="B58" s="42"/>
-      <c r="C58" s="73" t="s">
+      <c r="C58" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="74">
+      <c r="D58" s="96">
         <v>34</v>
       </c>
-      <c r="E58" s="74" t="s">
+      <c r="E58" s="96" t="s">
         <v>65</v>
       </c>
       <c r="F58" s="37">
         <f>E51</f>
         <v>2.2046199999999998</v>
       </c>
-      <c r="G58" s="74" t="s">
+      <c r="G58" s="96" t="s">
         <v>65</v>
       </c>
       <c r="H58" s="35">
         <f>E52</f>
         <v>29.573499999999999</v>
       </c>
-      <c r="I58" s="74" t="s">
+      <c r="I58" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="J58" s="93" t="s">
+      <c r="J58" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="K58" s="93"/>
+      <c r="K58" s="94"/>
       <c r="L58" s="42"/>
       <c r="M58" s="43"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="89" t="s">
+      <c r="A59" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="90"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
       <c r="F59" s="45">
         <f>B51</f>
         <v>1.23</v>
       </c>
-      <c r="G59" s="74"/>
+      <c r="G59" s="96"/>
       <c r="H59" s="44">
         <f>B52</f>
         <v>5.67</v>
       </c>
-      <c r="I59" s="74"/>
-      <c r="J59" s="75" t="s">
+      <c r="I59" s="96"/>
+      <c r="J59" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="K59" s="75"/>
+      <c r="K59" s="95"/>
       <c r="L59" s="42"/>
       <c r="M59" s="43"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="91"/>
-      <c r="B60" s="92"/>
+      <c r="A60" s="92"/>
+      <c r="B60" s="93"/>
       <c r="C60" s="42"/>
       <c r="D60" s="42"/>
       <c r="E60" s="42"/>
@@ -3402,10 +3421,10 @@
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="41"/>
       <c r="B61" s="42"/>
-      <c r="C61" s="73" t="s">
+      <c r="C61" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="74">
+      <c r="D61" s="96">
         <f>D58*E51/B51*E52/B52</f>
         <v>317.85365930801106</v>
       </c>
@@ -3416,18 +3435,18 @@
       <c r="G61" s="42"/>
       <c r="H61" s="42"/>
       <c r="I61" s="42"/>
-      <c r="J61" s="84" t="s">
+      <c r="J61" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="K61" s="94"/>
-      <c r="L61" s="85"/>
+      <c r="K61" s="98"/>
+      <c r="L61" s="99"/>
       <c r="M61" s="43"/>
     </row>
     <row r="62" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="42"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="74"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="96"/>
       <c r="E62" s="44" t="s">
         <v>63</v>
       </c>
@@ -3435,9 +3454,9 @@
       <c r="G62" s="42"/>
       <c r="H62" s="42"/>
       <c r="I62" s="42"/>
-      <c r="J62" s="86"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="87"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="101"/>
+      <c r="L62" s="102"/>
       <c r="M62" s="43"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3466,6 +3485,43 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="53">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="E46:G47"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="G53:H54"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="J61:L62"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="I58:I59"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="L36:N36"/>
     <mergeCell ref="A4:H12"/>
@@ -3482,43 +3538,6 @@
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="A27:H31"/>
     <mergeCell ref="A32:D33"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A59:B60"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="J61:L62"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="E46:G47"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="G53:H54"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:N68">
     <cfRule type="expression" dxfId="2" priority="1">
@@ -3566,6 +3585,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF15A8E-5C4D-466E-8875-CE32346BBDEE}">
+  <dimension ref="C5:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="128"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" state="hidden">
+      <selection activeCell="C5" sqref="C5:H10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="C5:H10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1BCCF5-0FED-40B4-A2E6-E7A0679B1D51}">
   <dimension ref="A11:N39"/>
   <sheetViews>
@@ -3626,10 +3724,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="112" t="s">
+      <c r="G12" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="113"/>
+      <c r="H12" s="72"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -3977,26 +4075,26 @@
     </row>
     <row r="30" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
-      <c r="B30" s="114" t="s">
+      <c r="B30" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="114" t="s">
+      <c r="C30" s="78"/>
+      <c r="D30" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="115"/>
-      <c r="F30" s="114" t="s">
+      <c r="E30" s="78"/>
+      <c r="F30" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="116"/>
-      <c r="H30" s="68" t="s">
+      <c r="G30" s="79"/>
+      <c r="H30" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="69"/>
-      <c r="J30" s="109" t="s">
+      <c r="I30" s="104"/>
+      <c r="J30" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="K30" s="110"/>
+      <c r="K30" s="67"/>
       <c r="L30" s="48"/>
       <c r="M30" s="48"/>
     </row>
@@ -4034,36 +4132,36 @@
       <c r="K31" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="L31" s="97" t="s">
+      <c r="L31" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="M31" s="98"/>
-      <c r="N31" s="99"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="56"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59" t="s">
+      <c r="C32" s="74"/>
+      <c r="D32" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="59" t="s">
+      <c r="E32" s="76"/>
+      <c r="F32" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="56"/>
+      <c r="G32" s="76"/>
       <c r="H32" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="82" t="s">
+      <c r="J32" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="83"/>
+      <c r="K32" s="69"/>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -4108,26 +4206,26 @@
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59" t="s">
+      <c r="C34" s="74"/>
+      <c r="D34" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="59" t="s">
+      <c r="E34" s="76"/>
+      <c r="F34" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="56"/>
+      <c r="G34" s="76"/>
       <c r="H34" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I34" s="29"/>
-      <c r="J34" s="82" t="s">
+      <c r="J34" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="83"/>
+      <c r="K34" s="69"/>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -4172,31 +4270,31 @@
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="59" t="s">
+      <c r="B36" s="120"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="56"/>
+      <c r="G36" s="76"/>
       <c r="H36" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I36" s="29"/>
-      <c r="J36" s="82" t="s">
+      <c r="J36" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="83"/>
+      <c r="K36" s="69"/>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="67"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="127"/>
       <c r="F37" s="17">
         <f>D12/A12</f>
         <v>2.2046199999999998</v>
@@ -4223,26 +4321,26 @@
       <c r="A38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="55" t="s">
+      <c r="C38" s="74"/>
+      <c r="D38" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="55" t="s">
+      <c r="E38" s="76"/>
+      <c r="F38" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="56"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="26" t="s">
         <v>2</v>
       </c>
       <c r="I38" s="29"/>
-      <c r="J38" s="82" t="s">
+      <c r="J38" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="K38" s="83"/>
+      <c r="K38" s="69"/>
     </row>
     <row r="39" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
@@ -4291,20 +4389,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
@@ -4314,6 +4398,20 @@
     <mergeCell ref="B36:C37"/>
     <mergeCell ref="D36:E37"/>
     <mergeCell ref="F36:G36"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J36:K36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
+++ b/144F20/Topic 2/Topic 2 Extra DQ 6.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{EDA37B3D-495B-4814-8333-DB2B07B0632B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{26E95620-0C58-4E2A-89E0-11755DC3D9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="1125" windowWidth="25995" windowHeight="14280" xr2:uid="{AF244846-4AAD-42AC-8F96-96B174BB4566}"/>
   </bookViews>
   <sheets>
     <sheet name="Conversions" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Solutions" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Solutions" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -1375,6 +1375,165 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1422,12 +1581,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1437,22 +1590,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1503,143 +1640,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2034,12 +2034,19 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AC4E2461-5F5E-4790-BBB2-43805CAF789F}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FDD986F4-8A9E-4933-9887-C02224FA8871}" diskRevisions="1" version="2">
   <header guid="{AC4E2461-5F5E-4790-BBB2-43805CAF789F}" dateTime="2022-07-20T13:47:47" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FDD986F4-8A9E-4933-9887-C02224FA8871}" dateTime="2022-07-20T14:38:49" maxSheetId="4" userName="Richard Ketchersid" r:id="rId2">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="3"/>
+      <sheetId val="2"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -2049,9 +2056,17 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" action="delete"/>
+  <rcv guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{AC4E2461-5F5E-4790-BBB2-43805CAF789F}" name="Richard Ketchersid" id="-1739560160" dateTime="2022-07-20T13:47:47"/>
+  <userInfo guid="{FDD986F4-8A9E-4933-9887-C02224FA8871}" name="Richard Ketchersid" id="-1739566479" dateTime="2022-07-20T14:38:31"/>
 </users>
 </file>
 
@@ -2366,107 +2381,107 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="118" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="119"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="108"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="108"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="108"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="108"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="108"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="108"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="108"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="111"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -2508,10 +2523,10 @@
         <v>6</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="72"/>
+      <c r="H15" s="116"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2780,73 +2795,73 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="82"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="122"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="85"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="125"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="85"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="125"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="125"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="86"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="88"/>
+      <c r="A31" s="126"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="128"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="122"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
@@ -2857,60 +2872,60 @@
       <c r="L32" s="34"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="83"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
+      <c r="A33" s="123"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="125"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="70"/>
-      <c r="H33" s="67"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="113"/>
       <c r="I33" s="2"/>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="105" t="s">
+      <c r="A34" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="107"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="33"/>
-      <c r="F34" s="105" t="s">
+      <c r="F34" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="107"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75"/>
     </row>
     <row r="35" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="78"/>
-      <c r="D35" s="77" t="s">
+      <c r="C35" s="118"/>
+      <c r="D35" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="78"/>
-      <c r="F35" s="77" t="s">
+      <c r="E35" s="118"/>
+      <c r="F35" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="79"/>
-      <c r="H35" s="103" t="s">
+      <c r="G35" s="119"/>
+      <c r="H35" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="I35" s="104"/>
-      <c r="J35" s="66" t="s">
+      <c r="I35" s="72"/>
+      <c r="J35" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="K35" s="67"/>
+      <c r="K35" s="113"/>
       <c r="L35" s="48"/>
       <c r="M35" s="48"/>
     </row>
@@ -2948,36 +2963,36 @@
       <c r="K36" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="L36" s="54" t="s">
+      <c r="L36" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="M36" s="55"/>
-      <c r="N36" s="56"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="102"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75" t="s">
+      <c r="C37" s="61"/>
+      <c r="D37" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="76"/>
-      <c r="F37" s="75" t="s">
+      <c r="E37" s="59"/>
+      <c r="F37" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="76"/>
-      <c r="H37" s="75" t="s">
+      <c r="G37" s="59"/>
+      <c r="H37" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="I37" s="76"/>
-      <c r="J37" s="68" t="s">
+      <c r="I37" s="59"/>
+      <c r="J37" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="69"/>
+      <c r="K37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
@@ -3002,26 +3017,26 @@
       <c r="A39" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75" t="s">
+      <c r="C39" s="61"/>
+      <c r="D39" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="76"/>
-      <c r="F39" s="75" t="s">
+      <c r="E39" s="59"/>
+      <c r="F39" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="76"/>
-      <c r="H39" s="75" t="s">
+      <c r="G39" s="59"/>
+      <c r="H39" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="I39" s="76"/>
-      <c r="J39" s="68" t="s">
+      <c r="I39" s="59"/>
+      <c r="J39" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="K39" s="69"/>
+      <c r="K39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
@@ -3046,31 +3061,31 @@
       <c r="A41" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="120"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="75" t="s">
+      <c r="B41" s="63"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G41" s="76"/>
-      <c r="H41" s="75" t="s">
+      <c r="G41" s="59"/>
+      <c r="H41" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="76"/>
-      <c r="J41" s="68" t="s">
+      <c r="I41" s="59"/>
+      <c r="J41" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="K41" s="69"/>
+      <c r="K41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="122"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="127"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
       <c r="H42" s="17"/>
@@ -3082,26 +3097,26 @@
       <c r="A43" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="108" t="s">
+      <c r="C43" s="61"/>
+      <c r="D43" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="76"/>
-      <c r="F43" s="108" t="s">
+      <c r="E43" s="59"/>
+      <c r="F43" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="76"/>
-      <c r="H43" s="108" t="s">
+      <c r="G43" s="59"/>
+      <c r="H43" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="76"/>
-      <c r="J43" s="68" t="s">
+      <c r="I43" s="59"/>
+      <c r="J43" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="K43" s="69"/>
+      <c r="K43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
@@ -3124,16 +3139,16 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E46" s="109" t="s">
+      <c r="E46" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="110"/>
-      <c r="G46" s="111"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="81"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="112"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="114"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="84"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3233,10 +3248,10 @@
       <c r="D53" s="42"/>
       <c r="E53" s="42"/>
       <c r="F53" s="42"/>
-      <c r="G53" s="97" t="s">
+      <c r="G53" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="H53" s="99"/>
+      <c r="H53" s="88"/>
       <c r="I53" s="42"/>
       <c r="J53" s="42"/>
       <c r="K53" s="42"/>
@@ -3250,8 +3265,8 @@
       <c r="D54" s="42"/>
       <c r="E54" s="42"/>
       <c r="F54" s="42"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="102"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="90"/>
       <c r="I54" s="42"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
@@ -3259,22 +3274,22 @@
       <c r="M54" s="43"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="53">
+      <c r="A55" s="99">
         <v>34</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="89" t="s">
+      <c r="C55" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="95">
+      <c r="D55" s="78">
         <v>34</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="96" t="s">
+      <c r="F55" s="77" t="s">
         <v>65</v>
       </c>
       <c r="G55" s="35">
@@ -3285,7 +3300,7 @@
         <f>F51</f>
         <v>bar</v>
       </c>
-      <c r="I55" s="96" t="s">
+      <c r="I55" s="77" t="s">
         <v>65</v>
       </c>
       <c r="J55" s="35">
@@ -3300,16 +3315,16 @@
       <c r="M55" s="43"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
+      <c r="A56" s="99"/>
       <c r="B56" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="95"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="78"/>
       <c r="E56" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="96"/>
+      <c r="F56" s="77"/>
       <c r="G56" s="44">
         <f>B51</f>
         <v>1.23</v>
@@ -3318,7 +3333,7 @@
         <f>C51</f>
         <v>baz</v>
       </c>
-      <c r="I56" s="96"/>
+      <c r="I56" s="77"/>
       <c r="J56" s="44">
         <f>B52</f>
         <v>5.67</v>
@@ -3348,64 +3363,64 @@
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
       <c r="B58" s="42"/>
-      <c r="C58" s="89" t="s">
+      <c r="C58" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="96">
+      <c r="D58" s="77">
         <v>34</v>
       </c>
-      <c r="E58" s="96" t="s">
+      <c r="E58" s="77" t="s">
         <v>65</v>
       </c>
       <c r="F58" s="37">
         <f>E51</f>
         <v>2.2046199999999998</v>
       </c>
-      <c r="G58" s="96" t="s">
+      <c r="G58" s="77" t="s">
         <v>65</v>
       </c>
       <c r="H58" s="35">
         <f>E52</f>
         <v>29.573499999999999</v>
       </c>
-      <c r="I58" s="96" t="s">
+      <c r="I58" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="J58" s="94" t="s">
+      <c r="J58" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="K58" s="94"/>
+      <c r="K58" s="96"/>
       <c r="L58" s="42"/>
       <c r="M58" s="43"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="90" t="s">
+      <c r="A59" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="91"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="96"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
       <c r="F59" s="45">
         <f>B51</f>
         <v>1.23</v>
       </c>
-      <c r="G59" s="96"/>
+      <c r="G59" s="77"/>
       <c r="H59" s="44">
         <f>B52</f>
         <v>5.67</v>
       </c>
-      <c r="I59" s="96"/>
-      <c r="J59" s="95" t="s">
+      <c r="I59" s="77"/>
+      <c r="J59" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="K59" s="95"/>
+      <c r="K59" s="78"/>
       <c r="L59" s="42"/>
       <c r="M59" s="43"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="92"/>
-      <c r="B60" s="93"/>
+      <c r="A60" s="94"/>
+      <c r="B60" s="95"/>
       <c r="C60" s="42"/>
       <c r="D60" s="42"/>
       <c r="E60" s="42"/>
@@ -3421,10 +3436,10 @@
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="41"/>
       <c r="B61" s="42"/>
-      <c r="C61" s="89" t="s">
+      <c r="C61" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="96">
+      <c r="D61" s="77">
         <f>D58*E51/B51*E52/B52</f>
         <v>317.85365930801106</v>
       </c>
@@ -3435,18 +3450,18 @@
       <c r="G61" s="42"/>
       <c r="H61" s="42"/>
       <c r="I61" s="42"/>
-      <c r="J61" s="97" t="s">
+      <c r="J61" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="K61" s="98"/>
-      <c r="L61" s="99"/>
+      <c r="K61" s="97"/>
+      <c r="L61" s="88"/>
       <c r="M61" s="43"/>
     </row>
     <row r="62" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="42"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="96"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="77"/>
       <c r="E62" s="44" t="s">
         <v>63</v>
       </c>
@@ -3454,9 +3469,9 @@
       <c r="G62" s="42"/>
       <c r="H62" s="42"/>
       <c r="I62" s="42"/>
-      <c r="J62" s="100"/>
-      <c r="K62" s="101"/>
-      <c r="L62" s="102"/>
+      <c r="J62" s="89"/>
+      <c r="K62" s="98"/>
+      <c r="L62" s="90"/>
       <c r="M62" s="43"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3485,16 +3500,33 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="53">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A4:H12"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A27:H31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="J61:L62"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="I58:I59"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="F34:K34"/>
     <mergeCell ref="C55:C56"/>
@@ -3511,33 +3543,16 @@
     <mergeCell ref="G53:H54"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A59:B60"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="J61:L62"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A4:H12"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A27:H31"/>
-    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:N68">
     <cfRule type="expression" dxfId="2" priority="1">
@@ -3585,85 +3600,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF15A8E-5C4D-466E-8875-CE32346BBDEE}">
-  <dimension ref="C5:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="129" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J12" s="128"/>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" state="hidden">
-      <selection activeCell="C5" sqref="C5:H10"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-  </customSheetViews>
-  <mergeCells count="1">
-    <mergeCell ref="C5:H10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1BCCF5-0FED-40B4-A2E6-E7A0679B1D51}">
   <dimension ref="A11:N39"/>
   <sheetViews>
@@ -3724,10 +3660,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="72"/>
+      <c r="H12" s="116"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -4075,26 +4011,26 @@
     </row>
     <row r="30" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="77" t="s">
+      <c r="C30" s="118"/>
+      <c r="D30" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="78"/>
-      <c r="F30" s="77" t="s">
+      <c r="E30" s="118"/>
+      <c r="F30" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="79"/>
-      <c r="H30" s="103" t="s">
+      <c r="G30" s="119"/>
+      <c r="H30" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="104"/>
-      <c r="J30" s="66" t="s">
+      <c r="I30" s="72"/>
+      <c r="J30" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="K30" s="67"/>
+      <c r="K30" s="113"/>
       <c r="L30" s="48"/>
       <c r="M30" s="48"/>
     </row>
@@ -4132,36 +4068,36 @@
       <c r="K31" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="L31" s="54" t="s">
+      <c r="L31" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="M31" s="55"/>
-      <c r="N31" s="56"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="102"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75" t="s">
+      <c r="C32" s="61"/>
+      <c r="D32" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="75" t="s">
+      <c r="E32" s="59"/>
+      <c r="F32" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="76"/>
+      <c r="G32" s="59"/>
       <c r="H32" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="68" t="s">
+      <c r="J32" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="69"/>
+      <c r="K32" s="86"/>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -4206,26 +4142,26 @@
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="75" t="s">
+      <c r="C34" s="61"/>
+      <c r="D34" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="F34" s="75" t="s">
+      <c r="E34" s="59"/>
+      <c r="F34" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="76"/>
+      <c r="G34" s="59"/>
       <c r="H34" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I34" s="29"/>
-      <c r="J34" s="68" t="s">
+      <c r="J34" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="69"/>
+      <c r="K34" s="86"/>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -4270,31 +4206,31 @@
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="120"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="75" t="s">
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="76"/>
+      <c r="G36" s="59"/>
       <c r="H36" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I36" s="29"/>
-      <c r="J36" s="68" t="s">
+      <c r="J36" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="69"/>
+      <c r="K36" s="86"/>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="122"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="127"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="70"/>
       <c r="F37" s="17">
         <f>D12/A12</f>
         <v>2.2046199999999998</v>
@@ -4321,26 +4257,26 @@
       <c r="A38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="108" t="s">
+      <c r="C38" s="61"/>
+      <c r="D38" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="76"/>
-      <c r="F38" s="108" t="s">
+      <c r="E38" s="59"/>
+      <c r="F38" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="76"/>
+      <c r="G38" s="59"/>
       <c r="H38" s="26" t="s">
         <v>2</v>
       </c>
       <c r="I38" s="29"/>
-      <c r="J38" s="68" t="s">
+      <c r="J38" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="K38" s="69"/>
+      <c r="K38" s="86"/>
     </row>
     <row r="39" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
@@ -4389,6 +4325,20 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
@@ -4398,22 +4348,87 @@
     <mergeCell ref="B36:C37"/>
     <mergeCell ref="D36:E37"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J36:K36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF15A8E-5C4D-466E-8875-CE32346BBDEE}">
+  <dimension ref="C5:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="53"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{D3B99D0F-5290-4C19-9294-325A292E8E9A}" state="hidden">
+      <selection activeCell="C5" sqref="C5:H10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="C5:H10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>